--- a/code_generate_figures/data/ranks_all_Maxquant_DDA_ensemble_topk.xlsx
+++ b/code_generate_figures/data/ranks_all_Maxquant_DDA_ensemble_topk.xlsx
@@ -119,7 +119,7 @@
     <t xml:space="preserve">top2</t>
   </si>
   <si>
-    <t xml:space="preserve">2||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv</t>
+    <t xml:space="preserve">2||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top2</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">top3</t>
   </si>
   <si>
-    <t xml:space="preserve">3||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv</t>
+    <t xml:space="preserve">3||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top3</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">top4</t>
   </si>
   <si>
-    <t xml:space="preserve">4||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv</t>
+    <t xml:space="preserve">4||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top4</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">top5</t>
   </si>
   <si>
-    <t xml:space="preserve">5||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv</t>
+    <t xml:space="preserve">5||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top5</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">top6</t>
   </si>
   <si>
-    <t xml:space="preserve">6||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv</t>
+    <t xml:space="preserve">6||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top6</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">top7</t>
   </si>
   <si>
-    <t xml:space="preserve">7||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv</t>
+    <t xml:space="preserve">7||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top7</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">top8</t>
   </si>
   <si>
-    <t xml:space="preserve">8||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv</t>
+    <t xml:space="preserve">8||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top8</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">top9</t>
   </si>
   <si>
-    <t xml:space="preserve">9||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv</t>
+    <t xml:space="preserve">9||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top9</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">top10</t>
   </si>
   <si>
-    <t xml:space="preserve">10||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_Rlr.csv</t>
+    <t xml:space="preserve">10||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_Rlr.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top10</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">top11</t>
   </si>
   <si>
-    <t xml:space="preserve">11||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_lossf.csv</t>
+    <t xml:space="preserve">11||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top11</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">top12</t>
   </si>
   <si>
-    <t xml:space="preserve">12||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv</t>
+    <t xml:space="preserve">12||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top12</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">top13</t>
   </si>
   <si>
-    <t xml:space="preserve">13||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_lossf.csv</t>
+    <t xml:space="preserve">13||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseqrob_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top13</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">top14</t>
   </si>
   <si>
-    <t xml:space="preserve">14||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_LFQ_SeqKNN_lossf.csv</t>
+    <t xml:space="preserve">14||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top14</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">top15</t>
   </si>
   <si>
-    <t xml:space="preserve">15||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_LFQ_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_Rlr.csv</t>
+    <t xml:space="preserve">15||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_Maxquant_dlfq_SeqKNN_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top15</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">top16</t>
   </si>
   <si>
-    <t xml:space="preserve">16||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_LFQ_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv</t>
+    <t xml:space="preserve">16||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEP_Maxquant_dlfq_Impseq_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top16</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">top17</t>
   </si>
   <si>
-    <t xml:space="preserve">17||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_LFQ_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_proDA_Maxquant_dlfq_Impseq_.csv</t>
+    <t xml:space="preserve">17||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEP_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_lossf.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top17</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">top18</t>
   </si>
   <si>
-    <t xml:space="preserve">18||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_LFQ_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_proDA_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_lossf.csv</t>
+    <t xml:space="preserve">18||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEP_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_LFQ_SeqKNN_lossf.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top18</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">top19</t>
   </si>
   <si>
-    <t xml:space="preserve">19||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_LFQ_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_proDA_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv</t>
+    <t xml:space="preserve">19||D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseq_Rlr.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_Maxquant_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEP_Maxquant_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_limma_Maxquant_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_LFQ_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/Maxquant/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_Maxquant_dlfq_SeqKNN_lossf.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top19</t>
@@ -959,70 +959,70 @@
         <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0.70686855</v>
+        <v>0.716625322727273</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7068686</v>
+        <v>0.7099967</v>
       </c>
       <c r="J2" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K2" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L2" t="n">
-        <v>0.789357068181818</v>
+        <v>0.791796040909091</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7893571</v>
+        <v>0.77791685</v>
       </c>
       <c r="N2" t="n">
+        <v>18</v>
+      </c>
+      <c r="O2" t="n">
+        <v>30</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.815531654545455</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.79714915</v>
+      </c>
+      <c r="R2" t="n">
+        <v>14</v>
+      </c>
+      <c r="S2" t="n">
+        <v>42</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.767147877272727</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.8186021</v>
+      </c>
+      <c r="V2" t="n">
         <v>22</v>
       </c>
-      <c r="O2" t="n">
-        <v>21</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.815353745454545</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.8153537</v>
-      </c>
-      <c r="R2" t="n">
-        <v>19</v>
-      </c>
-      <c r="S2" t="n">
-        <v>19</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.763679195454545</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.8154754</v>
-      </c>
-      <c r="V2" t="n">
-        <v>29</v>
-      </c>
       <c r="W2" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="X2" t="n">
-        <v>0.681304701363636</v>
+        <v>0.683942695909091</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7954917</v>
+        <v>0.8052316</v>
       </c>
       <c r="Z2" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="AC2" t="n">
         <v>36.2</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>31.8</v>
       </c>
     </row>
     <row r="3">
@@ -1048,70 +1048,70 @@
         <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>0.711661013636364</v>
+        <v>0.718956181818182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.711661</v>
+        <v>0.71739265</v>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" t="n">
-        <v>0.781583872727273</v>
+        <v>0.796696263636364</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7815839</v>
+        <v>0.7841056</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>0.804240636363636</v>
+        <v>0.819897968181818</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8042406</v>
+        <v>0.8020383</v>
       </c>
       <c r="R3" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="S3" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="T3" t="n">
-        <v>0.764233645454545</v>
+        <v>0.768165559090909</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8192654</v>
+        <v>0.81852755</v>
       </c>
       <c r="V3" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X3" t="n">
-        <v>0.670422553636364</v>
+        <v>0.679795014090909</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7594774</v>
+        <v>0.7901032</v>
       </c>
       <c r="Z3" t="n">
         <v>73</v>
       </c>
       <c r="AA3" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.8</v>
+        <v>26.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="4">
@@ -1137,70 +1137,70 @@
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7114664</v>
+        <v>0.72001705</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7114664</v>
+        <v>0.7161604</v>
       </c>
       <c r="J4" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K4" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" t="n">
-        <v>0.783931763636364</v>
+        <v>0.796065472727273</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7839318</v>
+        <v>0.7826057</v>
       </c>
       <c r="N4" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="P4" t="n">
-        <v>0.807102940909091</v>
+        <v>0.8190394</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8071029</v>
+        <v>0.800686</v>
       </c>
       <c r="R4" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="S4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T4" t="n">
-        <v>0.764051522727273</v>
+        <v>0.767512354545455</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8178649</v>
+        <v>0.81878695</v>
       </c>
       <c r="V4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="W4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>0.672288979545455</v>
+        <v>0.681333701818182</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7705646</v>
+        <v>0.79785445</v>
       </c>
       <c r="Z4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AB4" t="n">
-        <v>42.8</v>
+        <v>27.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>39.6</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="5">
@@ -1226,70 +1226,70 @@
         <v>44</v>
       </c>
       <c r="H5" t="n">
-        <v>0.708496386363636</v>
+        <v>0.720670140909091</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7084964</v>
+        <v>0.7182015</v>
       </c>
       <c r="J5" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K5" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
-        <v>0.788702854545455</v>
+        <v>0.796373</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7887029</v>
+        <v>0.7815054</v>
       </c>
       <c r="N5" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P5" t="n">
-        <v>0.81399805</v>
+        <v>0.82127135</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8139981</v>
+        <v>0.808967</v>
       </c>
       <c r="R5" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>0.763248918181818</v>
+        <v>0.769162895454545</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8163247</v>
+        <v>0.8209807</v>
       </c>
       <c r="V5" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="W5" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>0.684493366818182</v>
+        <v>0.69213052</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8049703</v>
+        <v>0.81169355</v>
       </c>
       <c r="Z5" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>36.2</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>30.6</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="6">
@@ -1315,70 +1315,70 @@
         <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>0.715474313636364</v>
+        <v>0.731777995454545</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7154743</v>
+        <v>0.7306165</v>
       </c>
       <c r="J6" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0.784864627272727</v>
+        <v>0.788394659090909</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7848646</v>
+        <v>0.7640829</v>
       </c>
       <c r="N6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="P6" t="n">
-        <v>0.806957159090909</v>
+        <v>0.805234113636364</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8069572</v>
+        <v>0.7894744</v>
       </c>
       <c r="R6" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="S6" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="T6" t="n">
-        <v>0.764434604545455</v>
+        <v>0.763371763636364</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8192692</v>
+        <v>0.8156311</v>
       </c>
       <c r="V6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="X6" t="n">
-        <v>0.669131612727273</v>
+        <v>0.647764686818182</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7594774</v>
+        <v>0.75568585</v>
       </c>
       <c r="Z6" t="n">
         <v>74</v>
       </c>
       <c r="AA6" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="n">
-        <v>40.4</v>
+        <v>35.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>39.8</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="7">
@@ -1404,70 +1404,70 @@
         <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>0.716596040909091</v>
+        <v>0.719139368181818</v>
       </c>
       <c r="I7" t="n">
-        <v>0.716596</v>
+        <v>0.7211049</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K7" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L7" t="n">
-        <v>0.794541772727273</v>
+        <v>0.793333640909091</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7930633</v>
+        <v>0.78211555</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P7" t="n">
-        <v>0.818082140909091</v>
+        <v>0.816937672727273</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8180821</v>
+        <v>0.79970925</v>
       </c>
       <c r="R7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="T7" t="n">
-        <v>0.766588895454545</v>
+        <v>0.769149809090909</v>
       </c>
       <c r="U7" t="n">
-        <v>0.816833</v>
+        <v>0.8208001</v>
       </c>
       <c r="V7" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="X7" t="n">
-        <v>0.681673905909091</v>
+        <v>0.68563901</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7954917</v>
+        <v>0.79798065</v>
       </c>
       <c r="Z7" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AB7" t="n">
-        <v>26.8</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>24.2</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="8">
@@ -1493,70 +1493,70 @@
         <v>49</v>
       </c>
       <c r="H8" t="n">
-        <v>0.701633377272727</v>
+        <v>0.713514422727273</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7016709</v>
+        <v>0.71708285</v>
       </c>
       <c r="J8" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K8" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L8" t="n">
-        <v>0.779804227272727</v>
+        <v>0.794100518181818</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7694792</v>
+        <v>0.78080425</v>
       </c>
       <c r="N8" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="P8" t="n">
-        <v>0.805129113636364</v>
+        <v>0.820000863636364</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8051291</v>
+        <v>0.80785935</v>
       </c>
       <c r="R8" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="T8" t="n">
-        <v>0.760104390909091</v>
+        <v>0.76508585</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8092782</v>
+        <v>0.8199408</v>
       </c>
       <c r="V8" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="W8" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>0.685507393636364</v>
+        <v>0.691706403181818</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8060767</v>
+        <v>0.8121595</v>
       </c>
       <c r="Z8" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>47.4</v>
+        <v>27.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>41.4</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="9">
@@ -1582,70 +1582,70 @@
         <v>49</v>
       </c>
       <c r="H9" t="n">
-        <v>0.713369286363636</v>
+        <v>0.728081295454545</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7133693</v>
+        <v>0.7309062</v>
       </c>
       <c r="J9" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.781773954545455</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7603782</v>
+      </c>
+      <c r="N9" t="n">
+        <v>42</v>
+      </c>
+      <c r="O9" t="n">
+        <v>64</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.797290772727273</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.7840208</v>
+      </c>
+      <c r="R9" t="n">
+        <v>51</v>
+      </c>
+      <c r="S9" t="n">
+        <v>53</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.760817722727273</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.81565185</v>
+      </c>
+      <c r="V9" t="n">
         <v>36</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.784365818181818</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.7832347</v>
-      </c>
-      <c r="N9" t="n">
-        <v>31</v>
-      </c>
-      <c r="O9" t="n">
-        <v>32</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.806047145454545</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.8060471</v>
-      </c>
-      <c r="R9" t="n">
-        <v>42</v>
-      </c>
-      <c r="S9" t="n">
-        <v>42</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.766434445454545</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.8160967</v>
-      </c>
-      <c r="V9" t="n">
-        <v>22</v>
-      </c>
       <c r="W9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="X9" t="n">
-        <v>0.668039101363636</v>
+        <v>0.641533673181818</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7570869</v>
+        <v>0.7557219</v>
       </c>
       <c r="Z9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>43.4</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="10">
@@ -1671,70 +1671,70 @@
         <v>49</v>
       </c>
       <c r="H10" t="n">
-        <v>0.71751465</v>
+        <v>0.720733372727273</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7175147</v>
+        <v>0.71849595</v>
       </c>
       <c r="J10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L10" t="n">
-        <v>0.794638731818182</v>
+        <v>0.789479004545454</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7920872</v>
+        <v>0.78301165</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="O10" t="n">
         <v>11</v>
       </c>
       <c r="P10" t="n">
-        <v>0.818042009090909</v>
+        <v>0.8130748</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.818042</v>
+        <v>0.8012572</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="S10" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="T10" t="n">
-        <v>0.765207545454546</v>
+        <v>0.767580104545455</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8149509</v>
+        <v>0.82099705</v>
       </c>
       <c r="V10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="W10" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
-        <v>0.680659282727273</v>
+        <v>0.682095072272727</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7829635</v>
+        <v>0.7919508</v>
       </c>
       <c r="Z10" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB10" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="AC10" t="n">
         <v>28.4</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>30.2</v>
       </c>
     </row>
     <row r="11">
@@ -1760,70 +1760,70 @@
         <v>54</v>
       </c>
       <c r="H11" t="n">
-        <v>0.700854318181818</v>
+        <v>0.712955890909091</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7015582</v>
+        <v>0.71555325</v>
       </c>
       <c r="J11" t="n">
+        <v>44</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.794218527272727</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.7805129</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.820213936363636</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.80784745</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.765000118181818</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.81974175</v>
+      </c>
+      <c r="V11" t="n">
+        <v>25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>20</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.691676907727273</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.8121595</v>
+      </c>
+      <c r="Z11" t="n">
         <v>53</v>
       </c>
-      <c r="K11" t="n">
-        <v>52</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.778569886363636</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7660132</v>
-      </c>
-      <c r="N11" t="n">
-        <v>47</v>
-      </c>
-      <c r="O11" t="n">
-        <v>46</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.803986954545455</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.803987</v>
-      </c>
-      <c r="R11" t="n">
-        <v>46</v>
-      </c>
-      <c r="S11" t="n">
-        <v>46</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.759059836363636</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.8086506</v>
-      </c>
-      <c r="V11" t="n">
-        <v>46</v>
-      </c>
-      <c r="W11" t="n">
-        <v>48</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.684706075454545</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.8053761</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>58</v>
-      </c>
       <c r="AA11" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>50</v>
+        <v>27.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>44.6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -1849,67 +1849,67 @@
         <v>54</v>
       </c>
       <c r="H12" t="n">
-        <v>0.712271027272727</v>
+        <v>0.726738804545455</v>
       </c>
       <c r="I12" t="n">
-        <v>0.712271</v>
+        <v>0.73054585</v>
       </c>
       <c r="J12" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>0.784076627272727</v>
+        <v>0.780768036363636</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7826735</v>
+        <v>0.7604597</v>
       </c>
       <c r="N12" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O12" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="P12" t="n">
-        <v>0.805810431818182</v>
+        <v>0.796521736363636</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8058104</v>
+        <v>0.7845257</v>
       </c>
       <c r="R12" t="n">
+        <v>52</v>
+      </c>
+      <c r="S12" t="n">
+        <v>52</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.759802154545455</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.81585535</v>
+      </c>
+      <c r="V12" t="n">
         <v>43</v>
       </c>
-      <c r="S12" t="n">
-        <v>43</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.766708927272727</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.8160967</v>
-      </c>
-      <c r="V12" t="n">
-        <v>19</v>
-      </c>
       <c r="W12" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="X12" t="n">
-        <v>0.668188492272727</v>
+        <v>0.638297646818182</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7570185</v>
+        <v>0.75520565</v>
       </c>
       <c r="Z12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="n">
         <v>76</v>
       </c>
       <c r="AB12" t="n">
-        <v>41.2</v>
+        <v>45</v>
       </c>
       <c r="AC12" t="n">
         <v>44.4</v>
@@ -1938,70 +1938,70 @@
         <v>54</v>
       </c>
       <c r="H13" t="n">
-        <v>0.715572654545455</v>
+        <v>0.721515440909091</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7155727</v>
+        <v>0.72188995</v>
       </c>
       <c r="J13" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K13" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L13" t="n">
-        <v>0.793103836363636</v>
+        <v>0.788538745454545</v>
       </c>
       <c r="M13" t="n">
-        <v>0.789065</v>
+        <v>0.78325805</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="O13" t="n">
+        <v>9</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.811611722727273</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.8007876</v>
+      </c>
+      <c r="R13" t="n">
+        <v>31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.767130240909091</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.821586</v>
+      </c>
+      <c r="V13" t="n">
         <v>23</v>
       </c>
-      <c r="P13" t="n">
-        <v>0.816740840909091</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.8167408</v>
-      </c>
-      <c r="R13" t="n">
-        <v>17</v>
-      </c>
-      <c r="S13" t="n">
-        <v>17</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.764236522727273</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.8149313</v>
-      </c>
-      <c r="V13" t="n">
-        <v>26</v>
-      </c>
       <c r="W13" t="n">
+        <v>9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.680856785</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.7906414</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB13" t="n">
         <v>36</v>
       </c>
-      <c r="X13" t="n">
-        <v>0.679809146363636</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.7826247</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>63</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>31.2</v>
-      </c>
       <c r="AC13" t="n">
-        <v>34.6</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="14">
@@ -2027,70 +2027,70 @@
         <v>59</v>
       </c>
       <c r="H14" t="n">
-        <v>0.701372754545455</v>
+        <v>0.704405040909091</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7013728</v>
+        <v>0.70389295</v>
       </c>
       <c r="J14" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K14" t="n">
         <v>53</v>
       </c>
       <c r="L14" t="n">
-        <v>0.781616559090909</v>
+        <v>0.781982895454545</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7668841</v>
+        <v>0.77102735</v>
       </c>
       <c r="N14" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="P14" t="n">
-        <v>0.808059290909091</v>
+        <v>0.808503490909091</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8080593</v>
+        <v>0.80347575</v>
       </c>
       <c r="R14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S14" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="T14" t="n">
-        <v>0.761033081818182</v>
+        <v>0.761689590909091</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8094678</v>
+        <v>0.8123534</v>
       </c>
       <c r="V14" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W14" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="X14" t="n">
-        <v>0.690907180454545</v>
+        <v>0.692226356818182</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.8112638</v>
+        <v>0.81441135</v>
       </c>
       <c r="Z14" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB14" t="n">
-        <v>45</v>
+        <v>42.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>40.6</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="15">
@@ -2116,70 +2116,70 @@
         <v>59</v>
       </c>
       <c r="H15" t="n">
-        <v>0.725210736363636</v>
+        <v>0.726621695454545</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7192945</v>
+        <v>0.7255539</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>0.779513077272727</v>
+        <v>0.780171381818182</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7612043</v>
+        <v>0.7630664</v>
       </c>
       <c r="N15" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P15" t="n">
-        <v>0.795457013636364</v>
+        <v>0.7958658</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7917269</v>
+        <v>0.78399005</v>
       </c>
       <c r="R15" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S15" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="T15" t="n">
-        <v>0.756300618181818</v>
+        <v>0.761384440909091</v>
       </c>
       <c r="U15" t="n">
-        <v>0.8054862</v>
+        <v>0.81211575</v>
       </c>
       <c r="V15" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="W15" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="X15" t="n">
-        <v>0.624576237727273</v>
+        <v>0.637789525454545</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7498371</v>
+        <v>0.75174</v>
       </c>
       <c r="Z15" t="n">
         <v>77</v>
       </c>
       <c r="AA15" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AB15" t="n">
-        <v>46.2</v>
+        <v>44</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="16">
@@ -2205,70 +2205,70 @@
         <v>59</v>
       </c>
       <c r="H16" t="n">
-        <v>0.718487518181818</v>
+        <v>0.721547740909091</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7184875</v>
+        <v>0.7176724</v>
       </c>
       <c r="J16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L16" t="n">
-        <v>0.794733890909091</v>
+        <v>0.791818318181818</v>
       </c>
       <c r="M16" t="n">
-        <v>0.791192</v>
+        <v>0.7808051</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
+        <v>21</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.814852086363636</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.80266635</v>
+      </c>
+      <c r="R16" t="n">
+        <v>21</v>
+      </c>
+      <c r="S16" t="n">
+        <v>26</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.768279109090909</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.82015495</v>
+      </c>
+      <c r="V16" t="n">
+        <v>11</v>
+      </c>
+      <c r="W16" t="n">
         <v>17</v>
       </c>
-      <c r="P16" t="n">
-        <v>0.817984686363636</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.8179847</v>
-      </c>
-      <c r="R16" t="n">
-        <v>12</v>
-      </c>
-      <c r="S16" t="n">
-        <v>12</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.766461177272727</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.816111</v>
-      </c>
-      <c r="V16" t="n">
-        <v>21</v>
-      </c>
-      <c r="W16" t="n">
-        <v>31</v>
-      </c>
       <c r="X16" t="n">
-        <v>0.683015933181818</v>
+        <v>0.68302369</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7826247</v>
+        <v>0.7893221</v>
       </c>
       <c r="Z16" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AA16" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB16" t="n">
-        <v>26.2</v>
+        <v>28.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>30.2</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="17">
@@ -2294,70 +2294,70 @@
         <v>64</v>
       </c>
       <c r="H17" t="n">
-        <v>0.699810059090909</v>
+        <v>0.703350631818182</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6998101</v>
+        <v>0.70086365</v>
       </c>
       <c r="J17" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L17" t="n">
-        <v>0.782547740909091</v>
+        <v>0.782930963636364</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7672173</v>
+        <v>0.7715865</v>
       </c>
       <c r="N17" t="n">
+        <v>35</v>
+      </c>
+      <c r="O17" t="n">
+        <v>32</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.810447645454545</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.8038735</v>
+      </c>
+      <c r="R17" t="n">
+        <v>32</v>
+      </c>
+      <c r="S17" t="n">
+        <v>18</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.762377713636364</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8150568</v>
+      </c>
+      <c r="V17" t="n">
+        <v>29</v>
+      </c>
+      <c r="W17" t="n">
+        <v>29</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.695461445454545</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.8158589</v>
+      </c>
+      <c r="Z17" t="n">
         <v>41</v>
       </c>
-      <c r="O17" t="n">
-        <v>43</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.810055795454545</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.809501</v>
-      </c>
-      <c r="R17" t="n">
-        <v>37</v>
-      </c>
-      <c r="S17" t="n">
-        <v>36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.761420490909091</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.8122824</v>
-      </c>
-      <c r="V17" t="n">
-        <v>33</v>
-      </c>
-      <c r="W17" t="n">
-        <v>38</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.693523562727273</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.8095349</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>53</v>
-      </c>
       <c r="AA17" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>43.6</v>
+        <v>37.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>38.6</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="18">
@@ -2383,70 +2383,70 @@
         <v>64</v>
       </c>
       <c r="H18" t="n">
-        <v>0.724215304545455</v>
+        <v>0.725401668181818</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7200079</v>
+        <v>0.7255297</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K18" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>0.775749186363636</v>
+        <v>0.776280768181818</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7613569</v>
+        <v>0.7620883</v>
       </c>
       <c r="N18" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O18" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P18" t="n">
-        <v>0.789585377272727</v>
+        <v>0.789886022727273</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7895854</v>
+        <v>0.78266505</v>
       </c>
       <c r="R18" t="n">
+        <v>58</v>
+      </c>
+      <c r="S18" t="n">
+        <v>59</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.753005254545455</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.8123818</v>
+      </c>
+      <c r="V18" t="n">
         <v>54</v>
       </c>
-      <c r="S18" t="n">
-        <v>48</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.751504695454545</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.8047537</v>
-      </c>
-      <c r="V18" t="n">
-        <v>59</v>
-      </c>
       <c r="W18" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="X18" t="n">
-        <v>0.612999551363636</v>
+        <v>0.617570003181818</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.7495742</v>
+        <v>0.75243925</v>
       </c>
       <c r="Z18" t="n">
         <v>78</v>
       </c>
       <c r="AA18" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="n">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>50.6</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="19">
@@ -2472,70 +2472,70 @@
         <v>64</v>
       </c>
       <c r="H19" t="n">
-        <v>0.720012481818182</v>
+        <v>0.722865136363636</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7192593</v>
+        <v>0.7238111</v>
       </c>
       <c r="J19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K19" t="n">
+        <v>14</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.789747890909091</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7833576</v>
+      </c>
+      <c r="N19" t="n">
+        <v>25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>8</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.812928886363636</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.80287665</v>
+      </c>
+      <c r="R19" t="n">
+        <v>28</v>
+      </c>
+      <c r="S19" t="n">
         <v>24</v>
       </c>
-      <c r="L19" t="n">
-        <v>0.795494372727273</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.7947137</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7</v>
-      </c>
-      <c r="O19" t="n">
-        <v>7</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.818658554545455</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.8186586</v>
-      </c>
-      <c r="R19" t="n">
-        <v>7</v>
-      </c>
-      <c r="S19" t="n">
-        <v>7</v>
-      </c>
       <c r="T19" t="n">
-        <v>0.766976768181818</v>
+        <v>0.767463218181818</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8161212</v>
+        <v>0.8200732</v>
       </c>
       <c r="V19" t="n">
+        <v>20</v>
+      </c>
+      <c r="W19" t="n">
         <v>18</v>
       </c>
-      <c r="W19" t="n">
-        <v>30</v>
-      </c>
       <c r="X19" t="n">
-        <v>0.684072974090909</v>
+        <v>0.683072969545454</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.7826247</v>
+        <v>0.7833297</v>
       </c>
       <c r="Z19" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AA19" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>31.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="20">
@@ -2561,70 +2561,70 @@
         <v>69</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6989331</v>
+        <v>0.702039440909091</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6989331</v>
+        <v>0.69836875</v>
       </c>
       <c r="J20" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K20" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L20" t="n">
-        <v>0.782467422727273</v>
+        <v>0.781688040909091</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7666887</v>
+        <v>0.7688488</v>
       </c>
       <c r="N20" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O20" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P20" t="n">
-        <v>0.809989540909091</v>
+        <v>0.8091988</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8095041</v>
+        <v>0.8005918</v>
       </c>
       <c r="R20" t="n">
         <v>38</v>
       </c>
       <c r="S20" t="n">
+        <v>36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.7619626</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.81440405</v>
+      </c>
+      <c r="V20" t="n">
+        <v>30</v>
+      </c>
+      <c r="W20" t="n">
+        <v>30</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.695354844545455</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.815569</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="AC20" t="n">
         <v>35</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.761588427272727</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.8122824</v>
-      </c>
-      <c r="V20" t="n">
-        <v>31</v>
-      </c>
-      <c r="W20" t="n">
-        <v>39</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.694346820909091</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.8095349</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>52</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -2650,70 +2650,70 @@
         <v>69</v>
       </c>
       <c r="H21" t="n">
-        <v>0.720369959090909</v>
+        <v>0.724144290909091</v>
       </c>
       <c r="I21" t="n">
-        <v>0.72037</v>
+        <v>0.72378255</v>
       </c>
       <c r="J21" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L21" t="n">
-        <v>0.772977272727273</v>
+        <v>0.775991377272727</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7608937</v>
+        <v>0.76249275</v>
       </c>
       <c r="N21" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O21" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
-        <v>0.787101840909091</v>
+        <v>0.789919090909091</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7871018</v>
+        <v>0.7828077</v>
       </c>
       <c r="R21" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S21" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T21" t="n">
-        <v>0.75146825</v>
+        <v>0.751898604545455</v>
       </c>
       <c r="U21" t="n">
-        <v>0.8033128</v>
+        <v>0.81182905</v>
       </c>
       <c r="V21" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W21" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="X21" t="n">
-        <v>0.612454996818182</v>
+        <v>0.612665400909091</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7481721</v>
+        <v>0.7518899</v>
       </c>
       <c r="Z21" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="n">
-        <v>54.2</v>
+        <v>52</v>
       </c>
       <c r="AC21" t="n">
-        <v>53</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="22">
@@ -2739,70 +2739,70 @@
         <v>69</v>
       </c>
       <c r="H22" t="n">
-        <v>0.719100731818182</v>
+        <v>0.721952772727273</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7191007</v>
+        <v>0.718659</v>
       </c>
       <c r="J22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L22" t="n">
-        <v>0.791876072727273</v>
+        <v>0.79214395</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7918761</v>
+        <v>0.7802764</v>
       </c>
       <c r="N22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P22" t="n">
-        <v>0.815892095454545</v>
+        <v>0.815077568181818</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8158921</v>
+        <v>0.8041789</v>
       </c>
       <c r="R22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T22" t="n">
-        <v>0.767782222727273</v>
+        <v>0.768490963636364</v>
       </c>
       <c r="U22" t="n">
-        <v>0.8171411</v>
+        <v>0.8216373</v>
       </c>
       <c r="V22" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W22" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>0.684180742272727</v>
+        <v>0.683969603181818</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7698983</v>
+        <v>0.7829561</v>
       </c>
       <c r="Z22" t="n">
         <v>60</v>
       </c>
       <c r="AA22" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AB22" t="n">
-        <v>27.2</v>
+        <v>24.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>30.2</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="23">
@@ -2828,70 +2828,70 @@
         <v>74</v>
       </c>
       <c r="H23" t="n">
-        <v>0.703183677272727</v>
+        <v>0.701850713636364</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7031837</v>
+        <v>0.69777425</v>
       </c>
       <c r="J23" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K23" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L23" t="n">
-        <v>0.784273377272727</v>
+        <v>0.781678990909091</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7686663</v>
+        <v>0.7686215</v>
       </c>
       <c r="N23" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O23" t="n">
+        <v>38</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.809299709090909</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.800594</v>
+      </c>
+      <c r="R23" t="n">
         <v>37</v>
       </c>
-      <c r="P23" t="n">
-        <v>0.811178304545455</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.8101266</v>
-      </c>
-      <c r="R23" t="n">
-        <v>32</v>
-      </c>
       <c r="S23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T23" t="n">
-        <v>0.761569913636364</v>
+        <v>0.761879522727273</v>
       </c>
       <c r="U23" t="n">
-        <v>0.8122824</v>
+        <v>0.8142724</v>
       </c>
       <c r="V23" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W23" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="X23" t="n">
-        <v>0.694732707727273</v>
+        <v>0.695352351363636</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.8090885</v>
+        <v>0.81512805</v>
       </c>
       <c r="Z23" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AA23" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>38.2</v>
+        <v>41.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="24">
@@ -2917,10 +2917,10 @@
         <v>74</v>
       </c>
       <c r="H24" t="n">
-        <v>0.721134786363636</v>
+        <v>0.72407195</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7211348</v>
+        <v>0.724062</v>
       </c>
       <c r="J24" t="n">
         <v>15</v>
@@ -2929,58 +2929,58 @@
         <v>13</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7737708</v>
+        <v>0.775868931818182</v>
       </c>
       <c r="M24" t="n">
-        <v>0.762839</v>
+        <v>0.76248105</v>
       </c>
       <c r="N24" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O24" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P24" t="n">
-        <v>0.787638777272727</v>
+        <v>0.789756945454545</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7876388</v>
+        <v>0.78280255</v>
       </c>
       <c r="R24" t="n">
+        <v>60</v>
+      </c>
+      <c r="S24" t="n">
+        <v>56</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.751915995454545</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.81182905</v>
+      </c>
+      <c r="V24" t="n">
         <v>55</v>
       </c>
-      <c r="S24" t="n">
-        <v>49</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.751323954545455</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.8026063</v>
-      </c>
-      <c r="V24" t="n">
-        <v>61</v>
-      </c>
       <c r="W24" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="X24" t="n">
-        <v>0.611851274090909</v>
+        <v>0.612667418181818</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7481721</v>
+        <v>0.7518899</v>
       </c>
       <c r="Z24" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="n">
-        <v>52</v>
+        <v>52.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>50</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="25">
@@ -3006,70 +3006,70 @@
         <v>74</v>
       </c>
       <c r="H25" t="n">
-        <v>0.720068390909091</v>
+        <v>0.722461436363636</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7200684</v>
+        <v>0.7183645</v>
       </c>
       <c r="J25" t="n">
         <v>21</v>
       </c>
       <c r="K25" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
-        <v>0.79097945</v>
+        <v>0.791111831818182</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7909795</v>
+        <v>0.78041475</v>
       </c>
       <c r="N25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O25" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="P25" t="n">
-        <v>0.815331077272727</v>
+        <v>0.814182540909091</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8153311</v>
+        <v>0.8041488</v>
       </c>
       <c r="R25" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="S25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T25" t="n">
-        <v>0.76795075</v>
+        <v>0.768403259090909</v>
       </c>
       <c r="U25" t="n">
-        <v>0.8185612</v>
+        <v>0.8218566</v>
       </c>
       <c r="V25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>0.683702119545455</v>
+        <v>0.683302955454545</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.7702315</v>
+        <v>0.78312265</v>
       </c>
       <c r="Z25" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AA25" t="n">
         <v>67</v>
       </c>
       <c r="AB25" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="26">
@@ -3095,70 +3095,70 @@
         <v>79</v>
       </c>
       <c r="H26" t="n">
-        <v>0.702691259090909</v>
+        <v>0.700651254545455</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7026913</v>
+        <v>0.69331495</v>
       </c>
       <c r="J26" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K26" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L26" t="n">
-        <v>0.784016409090909</v>
+        <v>0.779960390909091</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7686524</v>
+        <v>0.76774385</v>
       </c>
       <c r="N26" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="O26" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P26" t="n">
-        <v>0.811009222727273</v>
+        <v>0.807769077272727</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8095289</v>
+        <v>0.79791785</v>
       </c>
       <c r="R26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S26" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="T26" t="n">
-        <v>0.761091427272727</v>
+        <v>0.760697377272727</v>
       </c>
       <c r="U26" t="n">
-        <v>0.8122824</v>
+        <v>0.8140334</v>
       </c>
       <c r="V26" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="W26" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X26" t="n">
-        <v>0.694591665909091</v>
+        <v>0.694568286363636</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.8068529</v>
+        <v>0.8098279</v>
       </c>
       <c r="Z26" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA26" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>40.6</v>
+        <v>45.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>37.4</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="27">
@@ -3184,70 +3184,70 @@
         <v>79</v>
       </c>
       <c r="H27" t="n">
-        <v>0.720942695454545</v>
+        <v>0.72412065</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7209427</v>
+        <v>0.7237902</v>
       </c>
       <c r="J27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>0.773659295454545</v>
+        <v>0.775847822727273</v>
       </c>
       <c r="M27" t="n">
-        <v>0.762839</v>
+        <v>0.7623155</v>
       </c>
       <c r="N27" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O27" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P27" t="n">
-        <v>0.787521572727273</v>
+        <v>0.789766072727273</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7875216</v>
+        <v>0.78264135</v>
       </c>
       <c r="R27" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S27" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T27" t="n">
-        <v>0.746505022727273</v>
+        <v>0.751884131818182</v>
       </c>
       <c r="U27" t="n">
-        <v>0.8026063</v>
+        <v>0.81182905</v>
       </c>
       <c r="V27" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="W27" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="X27" t="n">
-        <v>0.601309033181818</v>
+        <v>0.612579561818182</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.7482414</v>
+        <v>0.7518559</v>
       </c>
       <c r="Z27" t="n">
         <v>81</v>
       </c>
       <c r="AA27" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="n">
-        <v>58.6</v>
+        <v>53.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>50.4</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="28">
@@ -3273,70 +3273,70 @@
         <v>79</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7191563</v>
+        <v>0.720926277272727</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7191563</v>
+        <v>0.71800015</v>
       </c>
       <c r="J28" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K28" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L28" t="n">
-        <v>0.78913925</v>
+        <v>0.792012077272727</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7891392</v>
+        <v>0.77865675</v>
       </c>
       <c r="N28" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O28" t="n">
+        <v>27</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.814755409090909</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8035641</v>
+      </c>
+      <c r="R28" t="n">
         <v>22</v>
       </c>
-      <c r="P28" t="n">
-        <v>0.8128795</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.8128795</v>
-      </c>
-      <c r="R28" t="n">
-        <v>26</v>
-      </c>
       <c r="S28" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="T28" t="n">
-        <v>0.767327495454545</v>
+        <v>0.7681534</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8171378</v>
+        <v>0.8210087</v>
       </c>
       <c r="V28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="W28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X28" t="n">
-        <v>0.681335278636364</v>
+        <v>0.683742960454545</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7698983</v>
+        <v>0.78282005</v>
       </c>
       <c r="Z28" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA28" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AB28" t="n">
-        <v>31</v>
+        <v>28.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3362,70 +3362,70 @@
         <v>84</v>
       </c>
       <c r="H29" t="n">
-        <v>0.702729718181818</v>
+        <v>0.700346363636364</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7027297</v>
+        <v>0.69305495</v>
       </c>
       <c r="J29" t="n">
+        <v>55</v>
+      </c>
+      <c r="K29" t="n">
+        <v>59</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.77965285</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.767497</v>
+      </c>
+      <c r="N29" t="n">
+        <v>49</v>
+      </c>
+      <c r="O29" t="n">
+        <v>44</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.807422604545455</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.7972494</v>
+      </c>
+      <c r="R29" t="n">
+        <v>42</v>
+      </c>
+      <c r="S29" t="n">
+        <v>41</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.760643786363636</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.8138822</v>
+      </c>
+      <c r="V29" t="n">
+        <v>40</v>
+      </c>
+      <c r="W29" t="n">
+        <v>33</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.694490904545454</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.8091576</v>
+      </c>
+      <c r="Z29" t="n">
         <v>48</v>
       </c>
-      <c r="K29" t="n">
-        <v>48</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.7840049</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.7685359</v>
-      </c>
-      <c r="N29" t="n">
-        <v>37</v>
-      </c>
-      <c r="O29" t="n">
-        <v>40</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.811031563636364</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.8093781</v>
-      </c>
-      <c r="R29" t="n">
-        <v>33</v>
-      </c>
-      <c r="S29" t="n">
-        <v>38</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.760792381818182</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.8122824</v>
-      </c>
-      <c r="V29" t="n">
-        <v>38</v>
-      </c>
-      <c r="W29" t="n">
-        <v>42</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.694423275</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.806405</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>51</v>
-      </c>
       <c r="AA29" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AB29" t="n">
-        <v>41.4</v>
+        <v>46.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>38.8</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="30">
@@ -3451,70 +3451,70 @@
         <v>84</v>
       </c>
       <c r="H30" t="n">
-        <v>0.720919240909091</v>
+        <v>0.723746172727273</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7209192</v>
+        <v>0.7232492</v>
       </c>
       <c r="J30" t="n">
         <v>17</v>
       </c>
       <c r="K30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L30" t="n">
-        <v>0.773553004545455</v>
+        <v>0.775729031818182</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7632096</v>
+        <v>0.76255625</v>
       </c>
       <c r="N30" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O30" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7874271</v>
+        <v>0.789705213636364</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7874271</v>
+        <v>0.78275285</v>
       </c>
       <c r="R30" t="n">
+        <v>61</v>
+      </c>
+      <c r="S30" t="n">
         <v>57</v>
       </c>
-      <c r="S30" t="n">
-        <v>51</v>
-      </c>
       <c r="T30" t="n">
-        <v>0.746508254545455</v>
+        <v>0.751889618181818</v>
       </c>
       <c r="U30" t="n">
-        <v>0.8026063</v>
+        <v>0.8116444</v>
       </c>
       <c r="V30" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="W30" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="X30" t="n">
-        <v>0.600915805909091</v>
+        <v>0.612426466363636</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.747504</v>
+        <v>0.7518559</v>
       </c>
       <c r="Z30" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="n">
-        <v>59.4</v>
+        <v>54.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="31">
@@ -3540,70 +3540,70 @@
         <v>84</v>
       </c>
       <c r="H31" t="n">
-        <v>0.717846522727273</v>
+        <v>0.719763981818182</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7178465</v>
+        <v>0.7170619</v>
       </c>
       <c r="J31" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K31" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L31" t="n">
-        <v>0.787539577272727</v>
+        <v>0.794717418181818</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7875396</v>
+        <v>0.776609</v>
       </c>
       <c r="N31" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="O31" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P31" t="n">
-        <v>0.811189454545455</v>
+        <v>0.817706063636364</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.8111895</v>
+        <v>0.80425505</v>
       </c>
       <c r="R31" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="S31" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T31" t="n">
-        <v>0.766186490909091</v>
+        <v>0.768151445454546</v>
       </c>
       <c r="U31" t="n">
-        <v>0.8167832</v>
+        <v>0.8203057</v>
       </c>
       <c r="V31" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="X31" t="n">
-        <v>0.679781419090909</v>
+        <v>0.686077607272727</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.7702315</v>
+        <v>0.78833995</v>
       </c>
       <c r="Z31" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="AA31" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AB31" t="n">
-        <v>36.2</v>
+        <v>24.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>36.4</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="32">
@@ -3629,70 +3629,70 @@
         <v>89</v>
       </c>
       <c r="H32" t="n">
-        <v>0.702765986363636</v>
+        <v>0.699432622727273</v>
       </c>
       <c r="I32" t="n">
-        <v>0.702766</v>
+        <v>0.6927578</v>
       </c>
       <c r="J32" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K32" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="L32" t="n">
-        <v>0.784085586363636</v>
+        <v>0.779146568181818</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7686448</v>
+        <v>0.76701935</v>
       </c>
       <c r="N32" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="O32" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P32" t="n">
-        <v>0.811184440909091</v>
+        <v>0.807107636363636</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8096506</v>
+        <v>0.7969642</v>
       </c>
       <c r="R32" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="S32" t="n">
+        <v>43</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.760565995454546</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.81351455</v>
+      </c>
+      <c r="V32" t="n">
+        <v>41</v>
+      </c>
+      <c r="W32" t="n">
+        <v>38</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.694478052727273</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.8091576</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA32" t="n">
         <v>33</v>
       </c>
-      <c r="T32" t="n">
-        <v>0.760908513636364</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.8126394</v>
-      </c>
-      <c r="V32" t="n">
-        <v>37</v>
-      </c>
-      <c r="W32" t="n">
-        <v>37</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0.695123606363636</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0.806405</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>47</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>27</v>
-      </c>
       <c r="AB32" t="n">
-        <v>39.2</v>
+        <v>49.2</v>
       </c>
       <c r="AC32" t="n">
-        <v>36.6</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="33">
@@ -3718,70 +3718,70 @@
         <v>89</v>
       </c>
       <c r="H33" t="n">
-        <v>0.720778786363636</v>
+        <v>0.723211690909091</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7207788</v>
+        <v>0.72267195</v>
       </c>
       <c r="J33" t="n">
         <v>18</v>
       </c>
       <c r="K33" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L33" t="n">
-        <v>0.773184718181818</v>
+        <v>0.774956</v>
       </c>
       <c r="M33" t="n">
-        <v>0.7632096</v>
+        <v>0.7624173</v>
       </c>
       <c r="N33" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O33" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P33" t="n">
-        <v>0.787219236363636</v>
+        <v>0.788810663636364</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7872192</v>
+        <v>0.78268095</v>
       </c>
       <c r="R33" t="n">
+        <v>62</v>
+      </c>
+      <c r="S33" t="n">
         <v>58</v>
       </c>
-      <c r="S33" t="n">
-        <v>52</v>
-      </c>
       <c r="T33" t="n">
-        <v>0.746702490909091</v>
+        <v>0.747075263636364</v>
       </c>
       <c r="U33" t="n">
-        <v>0.8026063</v>
+        <v>0.8116444</v>
       </c>
       <c r="V33" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="W33" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="X33" t="n">
-        <v>0.600945465</v>
+        <v>0.601905784545455</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.747504</v>
+        <v>0.7518559</v>
       </c>
       <c r="Z33" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA33" t="n">
         <v>82</v>
       </c>
-      <c r="AA33" t="n">
-        <v>83</v>
-      </c>
       <c r="AB33" t="n">
-        <v>59</v>
+        <v>59.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
@@ -3807,70 +3807,70 @@
         <v>89</v>
       </c>
       <c r="H34" t="n">
-        <v>0.719684827272727</v>
+        <v>0.721652413636364</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7196848</v>
+        <v>0.71811875</v>
       </c>
       <c r="J34" t="n">
         <v>24</v>
       </c>
       <c r="K34" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L34" t="n">
-        <v>0.788128877272727</v>
+        <v>0.792524809090909</v>
       </c>
       <c r="M34" t="n">
-        <v>0.7881289</v>
+        <v>0.7782667</v>
       </c>
       <c r="N34" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O34" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P34" t="n">
-        <v>0.811422081818182</v>
+        <v>0.81505845</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.8114221</v>
+        <v>0.80355725</v>
       </c>
       <c r="R34" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="S34" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="T34" t="n">
-        <v>0.767083518181818</v>
+        <v>0.767290095454545</v>
       </c>
       <c r="U34" t="n">
-        <v>0.8167832</v>
+        <v>0.8201961</v>
       </c>
       <c r="V34" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W34" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="X34" t="n">
-        <v>0.681174265</v>
+        <v>0.682901332727273</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.7702315</v>
+        <v>0.7825173</v>
       </c>
       <c r="Z34" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA34" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="n">
-        <v>32.6</v>
+        <v>29</v>
       </c>
       <c r="AC34" t="n">
-        <v>34.8</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="35">
@@ -3896,70 +3896,70 @@
         <v>94</v>
       </c>
       <c r="H35" t="n">
-        <v>0.702516281818182</v>
+        <v>0.698891690909091</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7025163</v>
+        <v>0.69242425</v>
       </c>
       <c r="J35" t="n">
+        <v>60</v>
+      </c>
+      <c r="K35" t="n">
+        <v>61</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.779547140909091</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.76694445</v>
+      </c>
+      <c r="N35" t="n">
         <v>50</v>
       </c>
-      <c r="K35" t="n">
-        <v>50</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.784090136363636</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.7698935</v>
-      </c>
-      <c r="N35" t="n">
-        <v>33</v>
-      </c>
       <c r="O35" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P35" t="n">
-        <v>0.811371595454545</v>
+        <v>0.807300931818182</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.809423</v>
+        <v>0.7969129</v>
       </c>
       <c r="R35" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="S35" t="n">
+        <v>44</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.760754922727273</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8137345</v>
+      </c>
+      <c r="V35" t="n">
         <v>37</v>
       </c>
-      <c r="T35" t="n">
-        <v>0.761010354545455</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.8117293</v>
-      </c>
-      <c r="V35" t="n">
-        <v>36</v>
-      </c>
       <c r="W35" t="n">
+        <v>34</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.695366346363636</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8091576</v>
+      </c>
+      <c r="Z35" t="n">
         <v>43</v>
       </c>
-      <c r="X35" t="n">
-        <v>0.695543300454545</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.8055085</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>45</v>
-      </c>
       <c r="AA35" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB35" t="n">
-        <v>38.6</v>
+        <v>46.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>39</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="36">
@@ -3985,58 +3985,58 @@
         <v>94</v>
       </c>
       <c r="H36" t="n">
-        <v>0.720425013636364</v>
+        <v>0.719678590909091</v>
       </c>
       <c r="I36" t="n">
-        <v>0.720425</v>
+        <v>0.71920435</v>
       </c>
       <c r="J36" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K36" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L36" t="n">
-        <v>0.771826013636364</v>
+        <v>0.772602709090909</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7653402</v>
+        <v>0.76221965</v>
       </c>
       <c r="N36" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O36" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="P36" t="n">
-        <v>0.785943977272727</v>
+        <v>0.786641795454545</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.785944</v>
+        <v>0.7825354</v>
       </c>
       <c r="R36" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S36" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="T36" t="n">
-        <v>0.746865681818182</v>
+        <v>0.747275977272727</v>
       </c>
       <c r="U36" t="n">
-        <v>0.8000169</v>
+        <v>0.8111047</v>
       </c>
       <c r="V36" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W36" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="X36" t="n">
-        <v>0.598262415</v>
+        <v>0.601524851363636</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.7454255</v>
+        <v>0.75012175</v>
       </c>
       <c r="Z36" t="n">
         <v>84</v>
@@ -4045,10 +4045,10 @@
         <v>84</v>
       </c>
       <c r="AB36" t="n">
-        <v>60.2</v>
+        <v>63.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>52</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="37">
@@ -4074,70 +4074,70 @@
         <v>94</v>
       </c>
       <c r="H37" t="n">
-        <v>0.719932281818182</v>
+        <v>0.719654190909091</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7199323</v>
+        <v>0.71704445</v>
       </c>
       <c r="J37" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K37" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L37" t="n">
-        <v>0.788058663636364</v>
+        <v>0.790521204545455</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7880587</v>
+        <v>0.778616</v>
       </c>
       <c r="N37" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O37" t="n">
         <v>28</v>
       </c>
       <c r="P37" t="n">
-        <v>0.811438086363636</v>
+        <v>0.814547622727273</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.8114381</v>
+        <v>0.8019053</v>
       </c>
       <c r="R37" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T37" t="n">
-        <v>0.767559118181818</v>
+        <v>0.767815077272727</v>
       </c>
       <c r="U37" t="n">
-        <v>0.8171379</v>
+        <v>0.8210087</v>
       </c>
       <c r="V37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W37" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="X37" t="n">
-        <v>0.681158473181818</v>
+        <v>0.684682915909091</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.7702315</v>
+        <v>0.7825854</v>
       </c>
       <c r="Z37" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AA37" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB37" t="n">
-        <v>32.2</v>
+        <v>31.2</v>
       </c>
       <c r="AC37" t="n">
-        <v>34</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="38">
@@ -4163,70 +4163,70 @@
         <v>99</v>
       </c>
       <c r="H38" t="n">
-        <v>0.724154031818182</v>
+        <v>0.698764036363636</v>
       </c>
       <c r="I38" t="n">
-        <v>0.724154</v>
+        <v>0.6923867</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="L38" t="n">
-        <v>0.809707818181818</v>
+        <v>0.779518309090909</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8206475</v>
+        <v>0.7669323</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="P38" t="n">
-        <v>0.838133472727273</v>
+        <v>0.807274581818182</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.841762</v>
+        <v>0.79686705</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="T38" t="n">
-        <v>0.775301440909091</v>
+        <v>0.760747236363636</v>
       </c>
       <c r="U38" t="n">
-        <v>0.8266583</v>
+        <v>0.8137345</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="W38" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="X38" t="n">
-        <v>0.732605258181818</v>
+        <v>0.69534601</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.8225687</v>
+        <v>0.8089339</v>
       </c>
       <c r="Z38" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="AA38" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="AB38" t="n">
-        <v>6.4</v>
+        <v>48</v>
       </c>
       <c r="AC38" t="n">
-        <v>4.4</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="39">
@@ -4252,58 +4252,58 @@
         <v>99</v>
       </c>
       <c r="H39" t="n">
-        <v>0.710578677272727</v>
+        <v>0.719289781818182</v>
       </c>
       <c r="I39" t="n">
-        <v>0.718113</v>
+        <v>0.71918185</v>
       </c>
       <c r="J39" t="n">
         <v>37</v>
       </c>
       <c r="K39" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L39" t="n">
-        <v>0.762799159090909</v>
+        <v>0.772286404545454</v>
       </c>
       <c r="M39" t="n">
-        <v>0.7627992</v>
+        <v>0.7621437</v>
       </c>
       <c r="N39" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P39" t="n">
-        <v>0.779474877272727</v>
+        <v>0.786352240909091</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7771628</v>
+        <v>0.7825097</v>
       </c>
       <c r="R39" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S39" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T39" t="n">
-        <v>0.748717995454545</v>
+        <v>0.746824840909091</v>
       </c>
       <c r="U39" t="n">
-        <v>0.8210973</v>
+        <v>0.8111047</v>
       </c>
       <c r="V39" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="W39" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="X39" t="n">
-        <v>0.579579313636364</v>
+        <v>0.600331851363636</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.7176225</v>
+        <v>0.74790975</v>
       </c>
       <c r="Z39" t="n">
         <v>85</v>
@@ -4312,10 +4312,10 @@
         <v>85</v>
       </c>
       <c r="AB39" t="n">
-        <v>63.2</v>
+        <v>65.4</v>
       </c>
       <c r="AC39" t="n">
-        <v>49.2</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="40">
@@ -4341,70 +4341,70 @@
         <v>99</v>
       </c>
       <c r="H40" t="n">
-        <v>0.721280695454545</v>
+        <v>0.72102945</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7212807</v>
+        <v>0.71807705</v>
       </c>
       <c r="J40" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="K40" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L40" t="n">
-        <v>0.792814440909091</v>
+        <v>0.791020240909091</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7913247</v>
+        <v>0.7798218</v>
       </c>
       <c r="N40" t="n">
+        <v>22</v>
+      </c>
+      <c r="O40" t="n">
+        <v>26</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.814860681818182</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.8026995</v>
+      </c>
+      <c r="R40" t="n">
+        <v>20</v>
+      </c>
+      <c r="S40" t="n">
+        <v>25</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.767760886363636</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.82205205</v>
+      </c>
+      <c r="V40" t="n">
         <v>17</v>
       </c>
-      <c r="O40" t="n">
-        <v>16</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0.817631545454545</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.8176315</v>
-      </c>
-      <c r="R40" t="n">
-        <v>14</v>
-      </c>
-      <c r="S40" t="n">
-        <v>14</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.773835631818182</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0.8246428</v>
-      </c>
-      <c r="V40" t="n">
-        <v>11</v>
-      </c>
       <c r="W40" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X40" t="n">
-        <v>0.696293954090909</v>
+        <v>0.684284282727273</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.8020039</v>
+        <v>0.7825854</v>
       </c>
       <c r="Z40" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AA40" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="AB40" t="n">
-        <v>19.4</v>
+        <v>29.4</v>
       </c>
       <c r="AC40" t="n">
-        <v>17.8</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="41">
@@ -4430,70 +4430,70 @@
         <v>104</v>
       </c>
       <c r="H41" t="n">
-        <v>0.724102763636364</v>
+        <v>0.700303845454545</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7241028</v>
+        <v>0.70775625</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="L41" t="n">
-        <v>0.809702081818182</v>
+        <v>0.78248525</v>
       </c>
       <c r="M41" t="n">
-        <v>0.8206628</v>
+        <v>0.7679934</v>
       </c>
       <c r="N41" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="P41" t="n">
-        <v>0.838144281818182</v>
+        <v>0.810023</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.841729</v>
+        <v>0.801318</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="T41" t="n">
-        <v>0.775150745454545</v>
+        <v>0.759620877272727</v>
       </c>
       <c r="U41" t="n">
-        <v>0.8266583</v>
+        <v>0.8137345</v>
       </c>
       <c r="V41" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="W41" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="X41" t="n">
-        <v>0.732508967272727</v>
+        <v>0.69539066</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.8233229</v>
+        <v>0.8100662</v>
       </c>
       <c r="Z41" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AA41" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AB41" t="n">
-        <v>7.8</v>
+        <v>42.8</v>
       </c>
       <c r="AC41" t="n">
-        <v>3.8</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="42">
@@ -4519,70 +4519,70 @@
         <v>104</v>
       </c>
       <c r="H42" t="n">
-        <v>0.71050685</v>
+        <v>0.730220954545455</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7175737</v>
+        <v>0.7265835</v>
       </c>
       <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>7</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.782099490909091</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7655793</v>
+      </c>
+      <c r="N42" t="n">
         <v>39</v>
       </c>
-      <c r="K42" t="n">
-        <v>30</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.762676786363636</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.7626768</v>
-      </c>
-      <c r="N42" t="n">
-        <v>60</v>
-      </c>
       <c r="O42" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="P42" t="n">
-        <v>0.77939105</v>
+        <v>0.794174463636364</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7770812</v>
+        <v>0.7932514</v>
       </c>
       <c r="R42" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S42" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="T42" t="n">
-        <v>0.748980245454545</v>
+        <v>0.615401527272727</v>
       </c>
       <c r="U42" t="n">
-        <v>0.8210973</v>
+        <v>0.5</v>
       </c>
       <c r="V42" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="W42" t="n">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="X42" t="n">
-        <v>0.579572818181818</v>
+        <v>0.246016710454545</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.7151857</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA42" t="n">
         <v>86</v>
       </c>
-      <c r="AA42" t="n">
-        <v>87</v>
-      </c>
       <c r="AB42" t="n">
-        <v>63.8</v>
+        <v>54</v>
       </c>
       <c r="AC42" t="n">
-        <v>50.8</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="43">
@@ -4608,70 +4608,70 @@
         <v>104</v>
       </c>
       <c r="H43" t="n">
-        <v>0.726217386363636</v>
+        <v>0.72175405</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7384462</v>
+        <v>0.7191832</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L43" t="n">
-        <v>0.793088795454545</v>
+        <v>0.791513495454545</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7930888</v>
+        <v>0.78094345</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O43" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P43" t="n">
-        <v>0.817338204545455</v>
+        <v>0.815274845454545</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.8173382</v>
+        <v>0.8040887</v>
       </c>
       <c r="R43" t="n">
         <v>16</v>
       </c>
       <c r="S43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T43" t="n">
-        <v>0.775426154545454</v>
+        <v>0.768424231818182</v>
       </c>
       <c r="U43" t="n">
-        <v>0.8278696</v>
+        <v>0.82240225</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X43" t="n">
-        <v>0.695211428636364</v>
+        <v>0.684292163181818</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.802141</v>
+        <v>0.7827895</v>
       </c>
       <c r="Z43" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AA43" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB43" t="n">
-        <v>15.6</v>
+        <v>25.2</v>
       </c>
       <c r="AC43" t="n">
-        <v>12.4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
@@ -4697,70 +4697,70 @@
         <v>109</v>
       </c>
       <c r="H44" t="n">
-        <v>0.723682913636364</v>
+        <v>0.700303845454545</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7236829</v>
+        <v>0.70775625</v>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="K44" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="L44" t="n">
-        <v>0.809703340909091</v>
+        <v>0.78248525</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8205355</v>
+        <v>0.7679934</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="O44" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="P44" t="n">
-        <v>0.838191545454545</v>
+        <v>0.810023</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.8416007</v>
+        <v>0.801318</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="T44" t="n">
-        <v>0.775126218181818</v>
+        <v>0.759678231818182</v>
       </c>
       <c r="U44" t="n">
-        <v>0.8265342</v>
+        <v>0.8137345</v>
       </c>
       <c r="V44" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="W44" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="X44" t="n">
-        <v>0.732550599090909</v>
+        <v>0.695486014545455</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.8233229</v>
+        <v>0.8105915</v>
       </c>
       <c r="Z44" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AA44" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.6</v>
+        <v>42.8</v>
       </c>
       <c r="AC44" t="n">
-        <v>5.2</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="45">
@@ -4786,70 +4786,70 @@
         <v>109</v>
       </c>
       <c r="H45" t="n">
-        <v>0.708784509090909</v>
+        <v>0.730220954545455</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7175737</v>
+        <v>0.7265835</v>
       </c>
       <c r="J45" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="L45" t="n">
-        <v>0.761074209090909</v>
+        <v>0.782099490909091</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7610742</v>
+        <v>0.7655793</v>
       </c>
       <c r="N45" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="O45" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P45" t="n">
-        <v>0.777777918181818</v>
+        <v>0.794174463636364</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7770891</v>
+        <v>0.7932514</v>
       </c>
       <c r="R45" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="S45" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="T45" t="n">
-        <v>0.74818935</v>
+        <v>0.615421654545454</v>
       </c>
       <c r="U45" t="n">
-        <v>0.8210973</v>
+        <v>0.5</v>
       </c>
       <c r="V45" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="W45" t="n">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="X45" t="n">
-        <v>0.577896431818182</v>
+        <v>0.246050610454545</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.7151857</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
+        <v>86</v>
+      </c>
+      <c r="AA45" t="n">
         <v>87</v>
       </c>
-      <c r="AA45" t="n">
-        <v>88</v>
-      </c>
       <c r="AB45" t="n">
-        <v>66</v>
+        <v>54.2</v>
       </c>
       <c r="AC45" t="n">
-        <v>52</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="46">
@@ -4875,70 +4875,70 @@
         <v>109</v>
       </c>
       <c r="H46" t="n">
-        <v>0.72189015</v>
+        <v>0.721430509090909</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7218902</v>
+        <v>0.71838245</v>
       </c>
       <c r="J46" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K46" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7928418</v>
+        <v>0.791734759090909</v>
       </c>
       <c r="M46" t="n">
-        <v>0.791436</v>
+        <v>0.78097155</v>
       </c>
       <c r="N46" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O46" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P46" t="n">
-        <v>0.817604204545455</v>
+        <v>0.815471331818182</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.8176042</v>
+        <v>0.80329115</v>
       </c>
       <c r="R46" t="n">
         <v>15</v>
       </c>
       <c r="S46" t="n">
+        <v>22</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.767899054545455</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.8221446</v>
+      </c>
+      <c r="V46" t="n">
         <v>15</v>
       </c>
-      <c r="T46" t="n">
-        <v>0.773773572727273</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0.8264819</v>
-      </c>
-      <c r="V46" t="n">
-        <v>12</v>
-      </c>
       <c r="W46" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X46" t="n">
-        <v>0.696157649090909</v>
+        <v>0.683910889090909</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.8018667</v>
+        <v>0.78319345</v>
       </c>
       <c r="Z46" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AA46" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="AB46" t="n">
-        <v>19.6</v>
+        <v>27.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>17.6</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="47">
@@ -4964,70 +4964,70 @@
         <v>114</v>
       </c>
       <c r="H47" t="n">
-        <v>0.723685222727273</v>
+        <v>0.700033377272727</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7236852</v>
+        <v>0.70760215</v>
       </c>
       <c r="J47" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="K47" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="L47" t="n">
-        <v>0.80970395</v>
+        <v>0.782660504545455</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8205355</v>
+        <v>0.7684092</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="O47" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="P47" t="n">
-        <v>0.838191927272727</v>
+        <v>0.810372740909091</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.8416007</v>
+        <v>0.8018235</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="S47" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="T47" t="n">
-        <v>0.775126218181818</v>
+        <v>0.759961454545454</v>
       </c>
       <c r="U47" t="n">
-        <v>0.8265342</v>
+        <v>0.81343375</v>
       </c>
       <c r="V47" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="W47" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="X47" t="n">
-        <v>0.732550599090909</v>
+        <v>0.696283394545455</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.8233229</v>
+        <v>0.8100732</v>
       </c>
       <c r="Z47" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="AA47" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.4</v>
+        <v>41.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>5.8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
@@ -5053,70 +5053,70 @@
         <v>114</v>
       </c>
       <c r="H48" t="n">
-        <v>0.699531686363636</v>
+        <v>0.730515881818182</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6995317</v>
+        <v>0.72481745</v>
       </c>
       <c r="J48" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="L48" t="n">
-        <v>0.760266059090909</v>
+        <v>0.781065295454545</v>
       </c>
       <c r="M48" t="n">
-        <v>0.7602661</v>
+        <v>0.7651087</v>
       </c>
       <c r="N48" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="O48" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="P48" t="n">
-        <v>0.777980940909091</v>
+        <v>0.793150468181818</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.7776978</v>
+        <v>0.79295485</v>
       </c>
       <c r="R48" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S48" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="T48" t="n">
-        <v>0.750707531818182</v>
+        <v>0.615183486363636</v>
       </c>
       <c r="U48" t="n">
-        <v>0.8198114</v>
+        <v>0.5</v>
       </c>
       <c r="V48" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="W48" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="X48" t="n">
-        <v>0.562842781818182</v>
+        <v>0.245441969545455</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.7153062</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
         <v>88</v>
       </c>
       <c r="AA48" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB48" t="n">
-        <v>66.6</v>
+        <v>55.8</v>
       </c>
       <c r="AC48" t="n">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="49">
@@ -5142,70 +5142,70 @@
         <v>114</v>
       </c>
       <c r="H49" t="n">
-        <v>0.724586336363636</v>
+        <v>0.721291027272727</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7291067</v>
+        <v>0.71828655</v>
       </c>
       <c r="J49" t="n">
+        <v>28</v>
+      </c>
+      <c r="K49" t="n">
+        <v>31</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.790913813636364</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.78120865</v>
+      </c>
+      <c r="N49" t="n">
+        <v>23</v>
+      </c>
+      <c r="O49" t="n">
+        <v>18</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.814943868181818</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.8031307</v>
+      </c>
+      <c r="R49" t="n">
+        <v>19</v>
+      </c>
+      <c r="S49" t="n">
+        <v>23</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.768618595454545</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.82217475</v>
+      </c>
+      <c r="V49" t="n">
+        <v>7</v>
+      </c>
+      <c r="W49" t="n">
         <v>4</v>
       </c>
-      <c r="K49" t="n">
-        <v>4</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.793030340909091</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.7923316</v>
-      </c>
-      <c r="N49" t="n">
-        <v>14</v>
-      </c>
-      <c r="O49" t="n">
-        <v>10</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0.817975072727273</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.8179751</v>
-      </c>
-      <c r="R49" t="n">
-        <v>13</v>
-      </c>
-      <c r="S49" t="n">
-        <v>13</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0.774495122727273</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0.8276905</v>
-      </c>
-      <c r="V49" t="n">
-        <v>9</v>
-      </c>
-      <c r="W49" t="n">
-        <v>2</v>
-      </c>
       <c r="X49" t="n">
-        <v>0.694780909545455</v>
+        <v>0.684889402272727</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.8020039</v>
+        <v>0.7833297</v>
       </c>
       <c r="Z49" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AA49" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AB49" t="n">
-        <v>17.6</v>
+        <v>26.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>13.4</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="50">
@@ -5231,70 +5231,70 @@
         <v>119</v>
       </c>
       <c r="H50" t="n">
-        <v>0.723260854545455</v>
+        <v>0.727262890909091</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7232609</v>
+        <v>0.74257835</v>
       </c>
       <c r="J50" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K50" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0.809873113636364</v>
+        <v>0.809908081818182</v>
       </c>
       <c r="M50" t="n">
-        <v>0.8221674</v>
+        <v>0.82688165</v>
       </c>
       <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.837696863636364</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.850673</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.774509527272727</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.82898495</v>
+      </c>
+      <c r="V50" t="n">
         <v>1</v>
       </c>
-      <c r="O50" t="n">
+      <c r="W50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="n">
-        <v>0.838538522727273</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.844119</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0.77454975</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0.8250031</v>
-      </c>
-      <c r="V50" t="n">
-        <v>8</v>
-      </c>
-      <c r="W50" t="n">
-        <v>10</v>
-      </c>
       <c r="X50" t="n">
-        <v>0.732718940909091</v>
+        <v>0.733950130454545</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.8233229</v>
+        <v>0.8264327</v>
       </c>
       <c r="Z50" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AA50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB50" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="AC50" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="51">
@@ -5320,58 +5320,58 @@
         <v>119</v>
       </c>
       <c r="H51" t="n">
-        <v>0.699265909090909</v>
+        <v>0.704267036363636</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6992659</v>
+        <v>0.7039963</v>
       </c>
       <c r="J51" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K51" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7598562</v>
+        <v>0.718543081818182</v>
       </c>
       <c r="M51" t="n">
-        <v>0.7598562</v>
+        <v>0.7228899</v>
       </c>
       <c r="N51" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O51" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P51" t="n">
-        <v>0.777447836363636</v>
+        <v>0.721154759090909</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7770454</v>
+        <v>0.72452205</v>
       </c>
       <c r="R51" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="S51" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="T51" t="n">
-        <v>0.750591109090909</v>
+        <v>0.572142268181818</v>
       </c>
       <c r="U51" t="n">
-        <v>0.8199853</v>
+        <v>0.5</v>
       </c>
       <c r="V51" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="W51" t="n">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="X51" t="n">
-        <v>0.562587363636364</v>
+        <v>0.156388420909091</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.7140845</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
         <v>89</v>
@@ -5380,10 +5380,10 @@
         <v>89</v>
       </c>
       <c r="AB51" t="n">
-        <v>68.4</v>
+        <v>74.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>58.8</v>
+        <v>74.6</v>
       </c>
     </row>
     <row r="52">
@@ -5409,70 +5409,70 @@
         <v>119</v>
       </c>
       <c r="H52" t="n">
-        <v>0.72459865</v>
+        <v>0.724437177272727</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7339271</v>
+        <v>0.72655615</v>
       </c>
       <c r="J52" t="n">
+        <v>12</v>
+      </c>
+      <c r="K52" t="n">
+        <v>9</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.787394077272727</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7831543</v>
+      </c>
+      <c r="N52" t="n">
+        <v>32</v>
+      </c>
+      <c r="O52" t="n">
+        <v>10</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.809546427272727</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.805255</v>
+      </c>
+      <c r="R52" t="n">
+        <v>36</v>
+      </c>
+      <c r="S52" t="n">
+        <v>12</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.770901645454545</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.81770925</v>
+      </c>
+      <c r="V52" t="n">
         <v>3</v>
       </c>
-      <c r="K52" t="n">
-        <v>3</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.793363563636364</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.7919997</v>
-      </c>
-      <c r="N52" t="n">
-        <v>11</v>
-      </c>
-      <c r="O52" t="n">
-        <v>12</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.818262845454545</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.8182628</v>
-      </c>
-      <c r="R52" t="n">
-        <v>8</v>
-      </c>
-      <c r="S52" t="n">
-        <v>8</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0.7751062</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0.8272647</v>
-      </c>
-      <c r="V52" t="n">
-        <v>7</v>
-      </c>
       <c r="W52" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="X52" t="n">
-        <v>0.695688298636364</v>
+        <v>0.683509737727273</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.8018667</v>
+        <v>0.8076938</v>
       </c>
       <c r="Z52" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AA52" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB52" t="n">
-        <v>14.6</v>
+        <v>29.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>13.2</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="53">
@@ -5498,70 +5498,70 @@
         <v>124</v>
       </c>
       <c r="H53" t="n">
-        <v>0.721229577272727</v>
+        <v>0.727487668181818</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7212296</v>
+        <v>0.74252435</v>
       </c>
       <c r="J53" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>0.807196331818182</v>
+        <v>0.809950572727273</v>
       </c>
       <c r="M53" t="n">
-        <v>0.8152136</v>
+        <v>0.8269918</v>
       </c>
       <c r="N53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>0.836335609090909</v>
+        <v>0.837697281818182</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.8437479</v>
+        <v>0.85070255</v>
       </c>
       <c r="R53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.774509527272727</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.82898495</v>
+      </c>
+      <c r="V53" t="n">
         <v>2</v>
       </c>
-      <c r="T53" t="n">
-        <v>0.773972436363636</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0.8246314</v>
-      </c>
-      <c r="V53" t="n">
-        <v>10</v>
-      </c>
       <c r="W53" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>0.732694686363636</v>
+        <v>0.733950130454545</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.8231811</v>
+        <v>0.8264327</v>
       </c>
       <c r="Z53" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AA53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB53" t="n">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -5587,58 +5587,58 @@
         <v>124</v>
       </c>
       <c r="H54" t="n">
-        <v>0.699345418181818</v>
+        <v>0.704227722727273</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6993454</v>
+        <v>0.7036489</v>
       </c>
       <c r="J54" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K54" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L54" t="n">
-        <v>0.759913245454545</v>
+        <v>0.718524668181818</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7599132</v>
+        <v>0.7227858</v>
       </c>
       <c r="N54" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P54" t="n">
-        <v>0.777484109090909</v>
+        <v>0.721120504545455</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7772377</v>
+        <v>0.72453465</v>
       </c>
       <c r="R54" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="S54" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="T54" t="n">
-        <v>0.750591109090909</v>
+        <v>0.572109313636364</v>
       </c>
       <c r="U54" t="n">
-        <v>0.8199853</v>
+        <v>0.5</v>
       </c>
       <c r="V54" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="W54" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="X54" t="n">
-        <v>0.562587363636364</v>
+        <v>0.156323552727273</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.7140845</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
         <v>90</v>
@@ -5647,10 +5647,10 @@
         <v>90</v>
       </c>
       <c r="AB54" t="n">
-        <v>68.2</v>
+        <v>75.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>58</v>
+        <v>75.4</v>
       </c>
     </row>
     <row r="55">
@@ -5676,70 +5676,70 @@
         <v>124</v>
       </c>
       <c r="H55" t="n">
-        <v>0.724538677272727</v>
+        <v>0.726079240909091</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7342283</v>
+        <v>0.7268799</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L55" t="n">
-        <v>0.792946695454545</v>
+        <v>0.78767685</v>
       </c>
       <c r="M55" t="n">
-        <v>0.7916285</v>
+        <v>0.78349415</v>
       </c>
       <c r="N55" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="O55" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P55" t="n">
-        <v>0.818185604545455</v>
+        <v>0.809051409090909</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.8181856</v>
+        <v>0.8059918</v>
       </c>
       <c r="R55" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="S55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T55" t="n">
-        <v>0.775568886363636</v>
+        <v>0.77085795</v>
       </c>
       <c r="U55" t="n">
-        <v>0.8272189</v>
+        <v>0.8178783</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W55" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="X55" t="n">
-        <v>0.697235844545455</v>
+        <v>0.682416559090909</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.8018667</v>
+        <v>0.8076938</v>
       </c>
       <c r="Z55" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AA55" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB55" t="n">
-        <v>14.2</v>
+        <v>30.6</v>
       </c>
       <c r="AC55" t="n">
-        <v>14</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="56">
@@ -5765,70 +5765,70 @@
         <v>35</v>
       </c>
       <c r="H56" t="n">
-        <v>0.708898754545455</v>
+        <v>0.717610981818182</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7088988</v>
+        <v>0.7150535</v>
       </c>
       <c r="J56" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K56" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L56" t="n">
-        <v>0.78834425</v>
+        <v>0.794622136363636</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7883442</v>
+        <v>0.78159315</v>
       </c>
       <c r="N56" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="P56" t="n">
-        <v>0.813008313636364</v>
+        <v>0.817976313636364</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.8130083</v>
+        <v>0.7998317</v>
       </c>
       <c r="R56" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="T56" t="n">
-        <v>0.759216868181818</v>
+        <v>0.762431731818182</v>
       </c>
       <c r="U56" t="n">
-        <v>0.810304</v>
+        <v>0.8113584</v>
       </c>
       <c r="V56" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="W56" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="X56" t="n">
-        <v>0.693225833181818</v>
+        <v>0.698855668181818</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.8053761</v>
+        <v>0.8239206</v>
       </c>
       <c r="Z56" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AA56" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AB56" t="n">
-        <v>38</v>
+        <v>24.8</v>
       </c>
       <c r="AC56" t="n">
-        <v>33.6</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="57">
@@ -5854,70 +5854,70 @@
         <v>44</v>
       </c>
       <c r="H57" t="n">
-        <v>0.710550322727273</v>
+        <v>0.723842977272727</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7049968</v>
+        <v>0.723285</v>
       </c>
       <c r="J57" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K57" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L57" t="n">
-        <v>0.790953709090909</v>
+        <v>0.795838295454545</v>
       </c>
       <c r="M57" t="n">
-        <v>0.7909537</v>
+        <v>0.78781055</v>
       </c>
       <c r="N57" t="n">
+        <v>6</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.819236359090909</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.80876765</v>
+      </c>
+      <c r="R57" t="n">
+        <v>8</v>
+      </c>
+      <c r="S57" t="n">
+        <v>6</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.761026286363636</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.8071736</v>
+      </c>
+      <c r="V57" t="n">
+        <v>35</v>
+      </c>
+      <c r="W57" t="n">
+        <v>53</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.705891428636364</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.82463095</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB57" t="n">
         <v>20</v>
       </c>
-      <c r="O57" t="n">
-        <v>19</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0.815214281818182</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.8152143</v>
-      </c>
-      <c r="R57" t="n">
-        <v>22</v>
-      </c>
-      <c r="S57" t="n">
-        <v>22</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0.755500472727273</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0.8033435</v>
-      </c>
-      <c r="V57" t="n">
-        <v>57</v>
-      </c>
-      <c r="W57" t="n">
-        <v>52</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0.699911835909091</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0.8212791</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>39</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>35.2</v>
-      </c>
       <c r="AC57" t="n">
-        <v>28.8</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="58">
@@ -5943,70 +5943,70 @@
         <v>49</v>
       </c>
       <c r="H58" t="n">
-        <v>0.690777636363636</v>
+        <v>0.708872113636364</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6887437</v>
+        <v>0.72083785</v>
       </c>
       <c r="J58" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K58" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L58" t="n">
-        <v>0.783685590909091</v>
+        <v>0.789099031818182</v>
       </c>
       <c r="M58" t="n">
-        <v>0.7676431</v>
+        <v>0.7869187</v>
       </c>
       <c r="N58" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O58" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="P58" t="n">
-        <v>0.810635718181818</v>
+        <v>0.814413627272727</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.8106357</v>
+        <v>0.80517885</v>
       </c>
       <c r="R58" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="S58" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="T58" t="n">
-        <v>0.750981904545455</v>
+        <v>0.754753527272727</v>
       </c>
       <c r="U58" t="n">
-        <v>0.7869089</v>
+        <v>0.79949325</v>
       </c>
       <c r="V58" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="W58" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="X58" t="n">
-        <v>0.701781523181818</v>
+        <v>0.70655144</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.8037125</v>
+        <v>0.8235477</v>
       </c>
       <c r="Z58" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AA58" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="AB58" t="n">
-        <v>46.2</v>
+        <v>35.8</v>
       </c>
       <c r="AC58" t="n">
-        <v>47.6</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="59">
@@ -6032,70 +6032,70 @@
         <v>54</v>
       </c>
       <c r="H59" t="n">
-        <v>0.671827354545455</v>
+        <v>0.700574468181818</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6537461</v>
+        <v>0.7162017</v>
       </c>
       <c r="J59" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K59" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="L59" t="n">
-        <v>0.771697477272727</v>
+        <v>0.785027468181818</v>
       </c>
       <c r="M59" t="n">
-        <v>0.7643206</v>
+        <v>0.76861255</v>
       </c>
       <c r="N59" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="O59" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P59" t="n">
-        <v>0.803492086363636</v>
+        <v>0.812331904545455</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.7801419</v>
+        <v>0.80847715</v>
       </c>
       <c r="R59" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="S59" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="T59" t="n">
-        <v>0.748087945454545</v>
+        <v>0.753863831818182</v>
       </c>
       <c r="U59" t="n">
-        <v>0.7815363</v>
+        <v>0.7982199</v>
       </c>
       <c r="V59" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="W59" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="X59" t="n">
-        <v>0.7027305</v>
+        <v>0.708078527727273</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.7919392</v>
+        <v>0.82310865</v>
       </c>
       <c r="Z59" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AA59" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="AB59" t="n">
-        <v>54.6</v>
+        <v>39.6</v>
       </c>
       <c r="AC59" t="n">
-        <v>58.4</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="60">
@@ -6121,70 +6121,70 @@
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6651355</v>
+        <v>0.67658745</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6547166</v>
+        <v>0.6826031</v>
       </c>
       <c r="J60" t="n">
         <v>63</v>
       </c>
       <c r="K60" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L60" t="n">
-        <v>0.766332936363636</v>
+        <v>0.773535286363636</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7640637</v>
+        <v>0.7693166</v>
       </c>
       <c r="N60" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O60" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="P60" t="n">
-        <v>0.800546059090909</v>
+        <v>0.805935477272727</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.7816756</v>
+        <v>0.78887805</v>
       </c>
       <c r="R60" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S60" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="T60" t="n">
-        <v>0.748040077272727</v>
+        <v>0.749412854545455</v>
       </c>
       <c r="U60" t="n">
-        <v>0.7803764</v>
+        <v>0.7845853</v>
       </c>
       <c r="V60" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="W60" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="X60" t="n">
-        <v>0.706521218181818</v>
+        <v>0.707390345454545</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.7905694</v>
+        <v>0.81113915</v>
       </c>
       <c r="Z60" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA60" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AB60" t="n">
-        <v>55.6</v>
+        <v>52.4</v>
       </c>
       <c r="AC60" t="n">
-        <v>59.2</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="61">
@@ -6210,70 +6210,70 @@
         <v>64</v>
       </c>
       <c r="H61" t="n">
-        <v>0.646928186363636</v>
+        <v>0.653279709090909</v>
       </c>
       <c r="I61" t="n">
-        <v>0.617549</v>
+        <v>0.63024965</v>
       </c>
       <c r="J61" t="n">
         <v>65</v>
       </c>
       <c r="K61" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L61" t="n">
-        <v>0.756087922727273</v>
+        <v>0.760379077272727</v>
       </c>
       <c r="M61" t="n">
-        <v>0.7560879</v>
+        <v>0.7624747</v>
       </c>
       <c r="N61" t="n">
+        <v>63</v>
+      </c>
+      <c r="O61" t="n">
+        <v>56</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.797819522727273</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.78174075</v>
+      </c>
+      <c r="R61" t="n">
+        <v>50</v>
+      </c>
+      <c r="S61" t="n">
         <v>65</v>
       </c>
-      <c r="O61" t="n">
-        <v>65</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0.794913513636364</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0.7834804</v>
-      </c>
-      <c r="R61" t="n">
-        <v>52</v>
-      </c>
-      <c r="S61" t="n">
+      <c r="T61" t="n">
+        <v>0.749521713636364</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.78499445</v>
+      </c>
+      <c r="V61" t="n">
+        <v>62</v>
+      </c>
+      <c r="W61" t="n">
+        <v>64</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.710222294545454</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.80932995</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>53</v>
+      </c>
+      <c r="AC61" t="n">
         <v>56</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0.748130309090909</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0.7809241</v>
-      </c>
-      <c r="V61" t="n">
-        <v>74</v>
-      </c>
-      <c r="W61" t="n">
-        <v>79</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0.709235052727273</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>0.7869051</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>63.2</v>
       </c>
     </row>
     <row r="62">
@@ -6299,10 +6299,10 @@
         <v>69</v>
       </c>
       <c r="H62" t="n">
-        <v>0.630376222727273</v>
+        <v>0.632470836363636</v>
       </c>
       <c r="I62" t="n">
-        <v>0.5966073</v>
+        <v>0.58728815</v>
       </c>
       <c r="J62" t="n">
         <v>67</v>
@@ -6311,58 +6311,58 @@
         <v>67</v>
       </c>
       <c r="L62" t="n">
-        <v>0.740248604545455</v>
+        <v>0.741605995454545</v>
       </c>
       <c r="M62" t="n">
-        <v>0.7463334</v>
+        <v>0.7519707</v>
       </c>
       <c r="N62" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O62" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
-        <v>0.785000040909091</v>
+        <v>0.7859525</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.778764</v>
+        <v>0.781466</v>
       </c>
       <c r="R62" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="S62" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T62" t="n">
-        <v>0.747868127272727</v>
+        <v>0.748735695454545</v>
       </c>
       <c r="U62" t="n">
-        <v>0.7789721</v>
+        <v>0.78209505</v>
       </c>
       <c r="V62" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="W62" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="X62" t="n">
-        <v>0.710095288181818</v>
+        <v>0.710449122727273</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.7869051</v>
+        <v>0.80925905</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA62" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="AB62" t="n">
-        <v>59.8</v>
+        <v>56.8</v>
       </c>
       <c r="AC62" t="n">
-        <v>66.2</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="63">
@@ -6388,10 +6388,10 @@
         <v>74</v>
       </c>
       <c r="H63" t="n">
-        <v>0.616208677272727</v>
+        <v>0.618253809090909</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5765167</v>
+        <v>0.57436065</v>
       </c>
       <c r="J63" t="n">
         <v>69</v>
@@ -6400,58 +6400,58 @@
         <v>69</v>
       </c>
       <c r="L63" t="n">
-        <v>0.727388709090909</v>
+        <v>0.7268971</v>
       </c>
       <c r="M63" t="n">
-        <v>0.7273887</v>
+        <v>0.73017855</v>
       </c>
       <c r="N63" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O63" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P63" t="n">
-        <v>0.775786445454545</v>
+        <v>0.775683081818182</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.772041</v>
+        <v>0.7650238</v>
       </c>
       <c r="R63" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S63" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T63" t="n">
-        <v>0.747952504545455</v>
+        <v>0.748970395454545</v>
       </c>
       <c r="U63" t="n">
-        <v>0.7783433</v>
+        <v>0.7835348</v>
       </c>
       <c r="V63" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="W63" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="X63" t="n">
-        <v>0.710972411363636</v>
+        <v>0.711536168181818</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.7864459</v>
+        <v>0.8085076</v>
       </c>
       <c r="Z63" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AA63" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="AB63" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="AC63" t="n">
         <v>61.6</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>69.4</v>
       </c>
     </row>
     <row r="64">
@@ -6477,22 +6477,22 @@
         <v>79</v>
       </c>
       <c r="H64" t="n">
-        <v>0.598186840909091</v>
+        <v>0.599421004545455</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5714622</v>
+        <v>0.57060815</v>
       </c>
       <c r="J64" t="n">
         <v>71</v>
       </c>
       <c r="K64" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L64" t="n">
-        <v>0.705443054545455</v>
+        <v>0.705508986363636</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6987348</v>
+        <v>0.671947</v>
       </c>
       <c r="N64" t="n">
         <v>72</v>
@@ -6501,46 +6501,46 @@
         <v>72</v>
       </c>
       <c r="P64" t="n">
-        <v>0.760206204545455</v>
+        <v>0.760402795454545</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.7602062</v>
+        <v>0.760634</v>
       </c>
       <c r="R64" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S64" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T64" t="n">
-        <v>0.7471055</v>
+        <v>0.747337118181818</v>
       </c>
       <c r="U64" t="n">
-        <v>0.7773632</v>
+        <v>0.7804903</v>
       </c>
       <c r="V64" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="W64" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="X64" t="n">
-        <v>0.710836927272727</v>
+        <v>0.711105274090909</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.7850665</v>
+        <v>0.80296695</v>
       </c>
       <c r="Z64" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA64" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AB64" t="n">
-        <v>64.2</v>
+        <v>61.2</v>
       </c>
       <c r="AC64" t="n">
-        <v>72</v>
+        <v>68.4</v>
       </c>
     </row>
     <row r="65">
@@ -6566,10 +6566,10 @@
         <v>84</v>
       </c>
       <c r="H65" t="n">
-        <v>0.586376359090909</v>
+        <v>0.587003690909091</v>
       </c>
       <c r="I65" t="n">
-        <v>0.5712377</v>
+        <v>0.56641025</v>
       </c>
       <c r="J65" t="n">
         <v>73</v>
@@ -6578,10 +6578,10 @@
         <v>74</v>
       </c>
       <c r="L65" t="n">
-        <v>0.6872746</v>
+        <v>0.6900246</v>
       </c>
       <c r="M65" t="n">
-        <v>0.6633108</v>
+        <v>0.65670135</v>
       </c>
       <c r="N65" t="n">
         <v>74</v>
@@ -6590,46 +6590,46 @@
         <v>74</v>
       </c>
       <c r="P65" t="n">
-        <v>0.744256804545455</v>
+        <v>0.746240959090909</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.7442568</v>
+        <v>0.7304341</v>
       </c>
       <c r="R65" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S65" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T65" t="n">
-        <v>0.746637995454545</v>
+        <v>0.747197568181818</v>
       </c>
       <c r="U65" t="n">
-        <v>0.7756441</v>
+        <v>0.77972545</v>
       </c>
       <c r="V65" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="W65" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="X65" t="n">
-        <v>0.710596418636364</v>
+        <v>0.711843023636364</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.7841456</v>
+        <v>0.803197</v>
       </c>
       <c r="Z65" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AA65" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AB65" t="n">
-        <v>66.4</v>
+        <v>61.8</v>
       </c>
       <c r="AC65" t="n">
-        <v>73.8</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="66">
@@ -6655,22 +6655,22 @@
         <v>89</v>
       </c>
       <c r="H66" t="n">
-        <v>0.576615036363636</v>
+        <v>0.574219309090909</v>
       </c>
       <c r="I66" t="n">
-        <v>0.5631055</v>
+        <v>0.5607298</v>
       </c>
       <c r="J66" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K66" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L66" t="n">
-        <v>0.675617959090909</v>
+        <v>0.677713654545455</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6472324</v>
+        <v>0.6453056</v>
       </c>
       <c r="N66" t="n">
         <v>76</v>
@@ -6679,46 +6679,46 @@
         <v>75</v>
       </c>
       <c r="P66" t="n">
-        <v>0.733167413636364</v>
+        <v>0.735356986363636</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7274986</v>
+        <v>0.71665055</v>
       </c>
       <c r="R66" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S66" t="n">
         <v>76</v>
       </c>
       <c r="T66" t="n">
-        <v>0.746647204545455</v>
+        <v>0.746882640909091</v>
       </c>
       <c r="U66" t="n">
-        <v>0.7778989</v>
+        <v>0.7791583</v>
       </c>
       <c r="V66" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="W66" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="X66" t="n">
-        <v>0.711388460454545</v>
+        <v>0.711768443636364</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.7841456</v>
+        <v>0.803197</v>
       </c>
       <c r="Z66" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AA66" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AB66" t="n">
-        <v>66.8</v>
+        <v>63.8</v>
       </c>
       <c r="AC66" t="n">
-        <v>74.6</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="67">
@@ -6744,22 +6744,22 @@
         <v>94</v>
       </c>
       <c r="H67" t="n">
-        <v>0.568951136363636</v>
+        <v>0.566038186363636</v>
       </c>
       <c r="I67" t="n">
-        <v>0.5570442</v>
+        <v>0.55373145</v>
       </c>
       <c r="J67" t="n">
         <v>78</v>
       </c>
       <c r="K67" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L67" t="n">
-        <v>0.666060659090909</v>
+        <v>0.667901059090909</v>
       </c>
       <c r="M67" t="n">
-        <v>0.635075</v>
+        <v>0.62895475</v>
       </c>
       <c r="N67" t="n">
         <v>78</v>
@@ -6768,46 +6768,46 @@
         <v>78</v>
       </c>
       <c r="P67" t="n">
-        <v>0.722130327272727</v>
+        <v>0.726152204545454</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7108089</v>
+        <v>0.70316475</v>
       </c>
       <c r="R67" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S67" t="n">
         <v>78</v>
       </c>
       <c r="T67" t="n">
-        <v>0.746542972727273</v>
+        <v>0.7466738</v>
       </c>
       <c r="U67" t="n">
-        <v>0.7752784</v>
+        <v>0.7784318</v>
       </c>
       <c r="V67" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="W67" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="X67" t="n">
-        <v>0.711909183181818</v>
+        <v>0.712071867727273</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.7832237</v>
+        <v>0.80296695</v>
       </c>
       <c r="Z67" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA67" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB67" t="n">
-        <v>68.4</v>
+        <v>65.2</v>
       </c>
       <c r="AC67" t="n">
-        <v>76.6</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="68">
@@ -6833,70 +6833,70 @@
         <v>99</v>
       </c>
       <c r="H68" t="n">
-        <v>0.565479286363636</v>
+        <v>0.557902863636364</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5560882</v>
+        <v>0.5474827</v>
       </c>
       <c r="J68" t="n">
         <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L68" t="n">
-        <v>0.662668422727273</v>
+        <v>0.657885281818182</v>
       </c>
       <c r="M68" t="n">
-        <v>0.6279312</v>
+        <v>0.61751595</v>
       </c>
       <c r="N68" t="n">
         <v>80</v>
       </c>
       <c r="O68" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P68" t="n">
-        <v>0.718747418181818</v>
+        <v>0.716749059090909</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.6990538</v>
+        <v>0.69413815</v>
       </c>
       <c r="R68" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S68" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="T68" t="n">
-        <v>0.758397940909091</v>
+        <v>0.746621172727273</v>
       </c>
       <c r="U68" t="n">
-        <v>0.7915491</v>
+        <v>0.7783269</v>
       </c>
       <c r="V68" t="n">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="W68" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="X68" t="n">
-        <v>0.739327462727273</v>
+        <v>0.712312374090909</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.8169102</v>
+        <v>0.80289595</v>
       </c>
       <c r="Z68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA68" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AB68" t="n">
-        <v>59.6</v>
+        <v>66.6</v>
       </c>
       <c r="AC68" t="n">
-        <v>64.4</v>
+        <v>76.4</v>
       </c>
     </row>
     <row r="69">
@@ -6922,10 +6922,10 @@
         <v>104</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5584031</v>
+        <v>0.553140695454545</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5489009</v>
+        <v>0.5430022</v>
       </c>
       <c r="J69" t="n">
         <v>82</v>
@@ -6934,58 +6934,58 @@
         <v>82</v>
       </c>
       <c r="L69" t="n">
-        <v>0.653648145454545</v>
+        <v>0.654104413636364</v>
       </c>
       <c r="M69" t="n">
-        <v>0.620033</v>
+        <v>0.61444325</v>
       </c>
       <c r="N69" t="n">
         <v>82</v>
       </c>
       <c r="O69" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P69" t="n">
-        <v>0.709607459090909</v>
+        <v>0.713543581818182</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.6850679</v>
+        <v>0.69711995</v>
       </c>
       <c r="R69" t="n">
         <v>82</v>
       </c>
       <c r="S69" t="n">
+        <v>79</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.746294431818182</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.7774859</v>
+      </c>
+      <c r="V69" t="n">
         <v>83</v>
       </c>
-      <c r="T69" t="n">
-        <v>0.757806068181818</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0.7911834</v>
-      </c>
-      <c r="V69" t="n">
-        <v>50</v>
-      </c>
       <c r="W69" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="X69" t="n">
-        <v>0.739158181818182</v>
+        <v>0.712664640909091</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.8164783</v>
+        <v>0.8026658</v>
       </c>
       <c r="Z69" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA69" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="AB69" t="n">
-        <v>61.4</v>
+        <v>67.6</v>
       </c>
       <c r="AC69" t="n">
-        <v>66.8</v>
+        <v>76.4</v>
       </c>
     </row>
     <row r="70">
@@ -7011,10 +7011,10 @@
         <v>109</v>
       </c>
       <c r="H70" t="n">
-        <v>0.551768290909091</v>
+        <v>0.546361527272727</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5426106</v>
+        <v>0.53533815</v>
       </c>
       <c r="J70" t="n">
         <v>84</v>
@@ -7023,58 +7023,58 @@
         <v>84</v>
       </c>
       <c r="L70" t="n">
-        <v>0.644277918181818</v>
+        <v>0.645960845454545</v>
       </c>
       <c r="M70" t="n">
-        <v>0.619051</v>
+        <v>0.60676405</v>
       </c>
       <c r="N70" t="n">
         <v>84</v>
       </c>
       <c r="O70" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P70" t="n">
-        <v>0.699808931818182</v>
+        <v>0.705820181818182</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6817963</v>
+        <v>0.689449</v>
       </c>
       <c r="R70" t="n">
         <v>84</v>
       </c>
       <c r="S70" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T70" t="n">
-        <v>0.75777545</v>
+        <v>0.746275254545455</v>
       </c>
       <c r="U70" t="n">
-        <v>0.7906366</v>
+        <v>0.7772975</v>
       </c>
       <c r="V70" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="W70" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="X70" t="n">
-        <v>0.739201020909091</v>
+        <v>0.712748715454545</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.8174606</v>
+        <v>0.80318365</v>
       </c>
       <c r="Z70" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA70" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AB70" t="n">
-        <v>62.6</v>
+        <v>68.8</v>
       </c>
       <c r="AC70" t="n">
-        <v>66.8</v>
+        <v>77.4</v>
       </c>
     </row>
     <row r="71">
@@ -7100,70 +7100,70 @@
         <v>114</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5466695</v>
+        <v>0.541690672727273</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5375643</v>
+        <v>0.53154775</v>
       </c>
       <c r="J71" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K71" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L71" t="n">
-        <v>0.637797459090909</v>
+        <v>0.636842254545455</v>
       </c>
       <c r="M71" t="n">
-        <v>0.6113625</v>
+        <v>0.6042633</v>
       </c>
       <c r="N71" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O71" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P71" t="n">
-        <v>0.694269768181818</v>
+        <v>0.695779095454545</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.6713212</v>
+        <v>0.6700419</v>
       </c>
       <c r="R71" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S71" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T71" t="n">
-        <v>0.75754935</v>
+        <v>0.746134668181818</v>
       </c>
       <c r="U71" t="n">
-        <v>0.7899106</v>
+        <v>0.7757461</v>
       </c>
       <c r="V71" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="W71" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="X71" t="n">
-        <v>0.73907805</v>
+        <v>0.713035908636364</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.8167447</v>
+        <v>0.80311255</v>
       </c>
       <c r="Z71" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA71" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AB71" t="n">
-        <v>64.4</v>
+        <v>70.8</v>
       </c>
       <c r="AC71" t="n">
-        <v>69.2</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="72">
@@ -7189,22 +7189,22 @@
         <v>119</v>
       </c>
       <c r="H72" t="n">
-        <v>0.541300209090909</v>
+        <v>0.542317977272727</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5345666</v>
+        <v>0.53068045</v>
       </c>
       <c r="J72" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K72" t="n">
         <v>88</v>
       </c>
       <c r="L72" t="n">
-        <v>0.629093104545455</v>
+        <v>0.635619740909091</v>
       </c>
       <c r="M72" t="n">
-        <v>0.6062432</v>
+        <v>0.6052149</v>
       </c>
       <c r="N72" t="n">
         <v>88</v>
@@ -7213,46 +7213,46 @@
         <v>88</v>
       </c>
       <c r="P72" t="n">
-        <v>0.685723563636364</v>
+        <v>0.692405590909091</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.6620739</v>
+        <v>0.667349</v>
       </c>
       <c r="R72" t="n">
         <v>88</v>
       </c>
       <c r="S72" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T72" t="n">
-        <v>0.757149877272727</v>
+        <v>0.754310809090909</v>
       </c>
       <c r="U72" t="n">
-        <v>0.7884343</v>
+        <v>0.7832868</v>
       </c>
       <c r="V72" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W72" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X72" t="n">
-        <v>0.739357635909091</v>
+        <v>0.732804015909091</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.8179098</v>
+        <v>0.82677395</v>
       </c>
       <c r="Z72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA72" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB72" t="n">
-        <v>64.6</v>
+        <v>63.6</v>
       </c>
       <c r="AC72" t="n">
-        <v>69.2</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="73">
@@ -7278,10 +7278,10 @@
         <v>124</v>
       </c>
       <c r="H73" t="n">
-        <v>0.536903990909091</v>
+        <v>0.538917781818182</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5309567</v>
+        <v>0.52848595</v>
       </c>
       <c r="J73" t="n">
         <v>90</v>
@@ -7290,10 +7290,10 @@
         <v>90</v>
       </c>
       <c r="L73" t="n">
-        <v>0.621664368181818</v>
+        <v>0.628825995454545</v>
       </c>
       <c r="M73" t="n">
-        <v>0.600123</v>
+        <v>0.60323935</v>
       </c>
       <c r="N73" t="n">
         <v>90</v>
@@ -7302,10 +7302,10 @@
         <v>90</v>
       </c>
       <c r="P73" t="n">
-        <v>0.678134754545455</v>
+        <v>0.6855187</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.657031</v>
+        <v>0.661451</v>
       </c>
       <c r="R73" t="n">
         <v>90</v>
@@ -7314,34 +7314,34 @@
         <v>90</v>
       </c>
       <c r="T73" t="n">
-        <v>0.756935945454545</v>
+        <v>0.75388125</v>
       </c>
       <c r="U73" t="n">
-        <v>0.7879016</v>
+        <v>0.78328925</v>
       </c>
       <c r="V73" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W73" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="X73" t="n">
-        <v>0.739543805</v>
+        <v>0.732415558636364</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.8173778</v>
+        <v>0.8264935</v>
       </c>
       <c r="Z73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA73" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AB73" t="n">
-        <v>65.8</v>
+        <v>65.6</v>
       </c>
       <c r="AC73" t="n">
-        <v>71.2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74">
@@ -7367,70 +7367,70 @@
         <v>35</v>
       </c>
       <c r="H74" t="n">
-        <v>0.708790177272727</v>
+        <v>0.717010340909091</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7087902</v>
+        <v>0.7126075</v>
       </c>
       <c r="J74" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L74" t="n">
-        <v>0.788775704545455</v>
+        <v>0.794477036363636</v>
       </c>
       <c r="M74" t="n">
-        <v>0.7887757</v>
+        <v>0.78157765</v>
       </c>
       <c r="N74" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="O74" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P74" t="n">
-        <v>0.81355835</v>
+        <v>0.817889390909091</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.8135583</v>
+        <v>0.7998068</v>
       </c>
       <c r="R74" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="S74" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="T74" t="n">
-        <v>0.759747922727273</v>
+        <v>0.762969154545455</v>
       </c>
       <c r="U74" t="n">
-        <v>0.8115349</v>
+        <v>0.8132435</v>
       </c>
       <c r="V74" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="W74" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="X74" t="n">
-        <v>0.692281825454545</v>
+        <v>0.69793108</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.8053761</v>
+        <v>0.82406075</v>
       </c>
       <c r="Z74" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AA74" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="AB74" t="n">
-        <v>37.4</v>
+        <v>25.4</v>
       </c>
       <c r="AC74" t="n">
-        <v>33.2</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="75">
@@ -7456,70 +7456,70 @@
         <v>44</v>
       </c>
       <c r="H75" t="n">
-        <v>0.709188159090909</v>
+        <v>0.722904559090909</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7049444</v>
+        <v>0.72312615</v>
       </c>
       <c r="J75" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K75" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="L75" t="n">
-        <v>0.790878040909091</v>
+        <v>0.795774495454545</v>
       </c>
       <c r="M75" t="n">
-        <v>0.790878</v>
+        <v>0.78779775</v>
       </c>
       <c r="N75" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O75" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P75" t="n">
-        <v>0.815288972727273</v>
+        <v>0.819323090909091</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.815289</v>
+        <v>0.8091195</v>
       </c>
       <c r="R75" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="S75" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="T75" t="n">
-        <v>0.756255513636364</v>
+        <v>0.761758</v>
       </c>
       <c r="U75" t="n">
-        <v>0.8047142</v>
+        <v>0.80909645</v>
       </c>
       <c r="V75" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="W75" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X75" t="n">
-        <v>0.698508325454545</v>
+        <v>0.704383006363636</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.8202335</v>
+        <v>0.8239389</v>
       </c>
       <c r="Z75" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA75" t="n">
         <v>8</v>
       </c>
       <c r="AB75" t="n">
-        <v>35.6</v>
+        <v>20.2</v>
       </c>
       <c r="AC75" t="n">
-        <v>29</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="76">
@@ -7545,70 +7545,70 @@
         <v>49</v>
       </c>
       <c r="H76" t="n">
-        <v>0.689372840909091</v>
+        <v>0.705359704545454</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6835782</v>
+        <v>0.70859815</v>
       </c>
       <c r="J76" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K76" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L76" t="n">
-        <v>0.783447286363636</v>
+        <v>0.78822</v>
       </c>
       <c r="M76" t="n">
-        <v>0.7677201</v>
+        <v>0.7829043</v>
       </c>
       <c r="N76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O76" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P76" t="n">
-        <v>0.810560831818182</v>
+        <v>0.814230913636364</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.8105608</v>
+        <v>0.8054762</v>
       </c>
       <c r="R76" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="S76" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="T76" t="n">
-        <v>0.752479090909091</v>
+        <v>0.756482586363636</v>
       </c>
       <c r="U76" t="n">
-        <v>0.7904986</v>
+        <v>0.80103735</v>
       </c>
       <c r="V76" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="W76" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="X76" t="n">
-        <v>0.701561831363636</v>
+        <v>0.706134577272727</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.806405</v>
+        <v>0.82346585</v>
       </c>
       <c r="Z76" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA76" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB76" t="n">
-        <v>46.2</v>
+        <v>36.6</v>
       </c>
       <c r="AC76" t="n">
-        <v>45.6</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="77">
@@ -7634,70 +7634,70 @@
         <v>54</v>
       </c>
       <c r="H77" t="n">
-        <v>0.670340181818182</v>
+        <v>0.697568981818182</v>
       </c>
       <c r="I77" t="n">
-        <v>0.6514705</v>
+        <v>0.713808</v>
       </c>
       <c r="J77" t="n">
         <v>62</v>
       </c>
       <c r="K77" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L77" t="n">
-        <v>0.770595295454545</v>
+        <v>0.784056545454545</v>
       </c>
       <c r="M77" t="n">
-        <v>0.76429</v>
+        <v>0.76907075</v>
       </c>
       <c r="N77" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="O77" t="n">
+        <v>36</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.812182059090909</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.80901815</v>
+      </c>
+      <c r="R77" t="n">
+        <v>30</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.75539595</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.8007853</v>
+      </c>
+      <c r="V77" t="n">
         <v>49</v>
       </c>
-      <c r="P77" t="n">
-        <v>0.802941127272727</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.7793605</v>
-      </c>
-      <c r="R77" t="n">
-        <v>48</v>
-      </c>
-      <c r="S77" t="n">
-        <v>61</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0.749436609090909</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0.7847236</v>
-      </c>
-      <c r="V77" t="n">
-        <v>68</v>
-      </c>
       <c r="W77" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="X77" t="n">
-        <v>0.701557793636364</v>
+        <v>0.707479868636364</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.792851</v>
+        <v>0.8239863</v>
       </c>
       <c r="Z77" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AA77" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="AB77" t="n">
-        <v>54.4</v>
+        <v>41</v>
       </c>
       <c r="AC77" t="n">
-        <v>58</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="78">
@@ -7723,10 +7723,10 @@
         <v>59</v>
       </c>
       <c r="H78" t="n">
-        <v>0.660972686363636</v>
+        <v>0.670246804545455</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6458041</v>
+        <v>0.6723518</v>
       </c>
       <c r="J78" t="n">
         <v>64</v>
@@ -7735,58 +7735,58 @@
         <v>64</v>
       </c>
       <c r="L78" t="n">
-        <v>0.765126168181818</v>
+        <v>0.771586568181818</v>
       </c>
       <c r="M78" t="n">
-        <v>0.761281</v>
+        <v>0.7695164</v>
       </c>
       <c r="N78" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O78" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="P78" t="n">
-        <v>0.800059681818182</v>
+        <v>0.805234272727273</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.782168</v>
+        <v>0.7908038</v>
       </c>
       <c r="R78" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S78" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="T78" t="n">
-        <v>0.7496777</v>
+        <v>0.751061740909091</v>
       </c>
       <c r="U78" t="n">
-        <v>0.7836542</v>
+        <v>0.7884914</v>
       </c>
       <c r="V78" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="W78" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="X78" t="n">
-        <v>0.706043387272727</v>
+        <v>0.707190092727273</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.7905694</v>
+        <v>0.81173185</v>
       </c>
       <c r="Z78" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA78" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="AB78" t="n">
-        <v>54.4</v>
+        <v>52.8</v>
       </c>
       <c r="AC78" t="n">
-        <v>60.2</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="79">
@@ -7812,70 +7812,70 @@
         <v>64</v>
       </c>
       <c r="H79" t="n">
-        <v>0.644165445454545</v>
+        <v>0.649873172727273</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6183348</v>
+        <v>0.62229755</v>
       </c>
       <c r="J79" t="n">
         <v>66</v>
       </c>
       <c r="K79" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L79" t="n">
-        <v>0.754644472727273</v>
+        <v>0.759428645454545</v>
       </c>
       <c r="M79" t="n">
-        <v>0.7546445</v>
+        <v>0.7607845</v>
       </c>
       <c r="N79" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O79" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P79" t="n">
-        <v>0.794310813636364</v>
+        <v>0.797836063636364</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.7838762</v>
+        <v>0.78240805</v>
       </c>
       <c r="R79" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S79" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="T79" t="n">
-        <v>0.749666740909091</v>
+        <v>0.751042059090909</v>
       </c>
       <c r="U79" t="n">
-        <v>0.7844812</v>
+        <v>0.78859815</v>
       </c>
       <c r="V79" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="W79" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="X79" t="n">
-        <v>0.709419241818182</v>
+        <v>0.710404148181818</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.7873641</v>
+        <v>0.8100802</v>
       </c>
       <c r="Z79" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AA79" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AB79" t="n">
-        <v>56.6</v>
+        <v>52.2</v>
       </c>
       <c r="AC79" t="n">
-        <v>61.6</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="80">
@@ -7901,10 +7901,10 @@
         <v>69</v>
       </c>
       <c r="H80" t="n">
-        <v>0.627155168181818</v>
+        <v>0.630577918181818</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5932199</v>
+        <v>0.5832628</v>
       </c>
       <c r="J80" t="n">
         <v>68</v>
@@ -7913,58 +7913,58 @@
         <v>68</v>
       </c>
       <c r="L80" t="n">
-        <v>0.738691054545455</v>
+        <v>0.740799568181818</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7461218</v>
+        <v>0.7492329</v>
       </c>
       <c r="N80" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O80" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P80" t="n">
-        <v>0.784593931818182</v>
+        <v>0.785814872727273</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.7797821</v>
+        <v>0.78189655</v>
       </c>
       <c r="R80" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S80" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T80" t="n">
-        <v>0.74926855</v>
+        <v>0.749949168181818</v>
       </c>
       <c r="U80" t="n">
-        <v>0.7830423</v>
+        <v>0.7856945</v>
       </c>
       <c r="V80" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="W80" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="X80" t="n">
-        <v>0.709914022272727</v>
+        <v>0.71026068</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.7873641</v>
+        <v>0.81000935</v>
       </c>
       <c r="Z80" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA80" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="AB80" t="n">
-        <v>58.8</v>
+        <v>57</v>
       </c>
       <c r="AC80" t="n">
-        <v>64.2</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="81">
@@ -7990,10 +7990,10 @@
         <v>74</v>
       </c>
       <c r="H81" t="n">
-        <v>0.613789954545455</v>
+        <v>0.613999509090909</v>
       </c>
       <c r="I81" t="n">
-        <v>0.575851</v>
+        <v>0.57278525</v>
       </c>
       <c r="J81" t="n">
         <v>70</v>
@@ -8002,58 +8002,58 @@
         <v>70</v>
       </c>
       <c r="L81" t="n">
-        <v>0.727417077272727</v>
+        <v>0.72603635</v>
       </c>
       <c r="M81" t="n">
-        <v>0.7274171</v>
+        <v>0.72980735</v>
       </c>
       <c r="N81" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O81" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P81" t="n">
-        <v>0.776427309090909</v>
+        <v>0.775886931818182</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.7720716</v>
+        <v>0.7664858</v>
       </c>
       <c r="R81" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S81" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T81" t="n">
-        <v>0.748752190909091</v>
+        <v>0.749327954545455</v>
       </c>
       <c r="U81" t="n">
-        <v>0.7825362</v>
+        <v>0.78709265</v>
       </c>
       <c r="V81" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="W81" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="X81" t="n">
-        <v>0.709881526818182</v>
+        <v>0.710363132272727</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.7869051</v>
+        <v>0.80887635</v>
       </c>
       <c r="Z81" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AA81" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="AB81" t="n">
-        <v>61.4</v>
+        <v>58.4</v>
       </c>
       <c r="AC81" t="n">
-        <v>67.4</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="82">
@@ -8079,22 +8079,22 @@
         <v>79</v>
       </c>
       <c r="H82" t="n">
-        <v>0.595738772727273</v>
+        <v>0.59833565</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5726766</v>
+        <v>0.56982305</v>
       </c>
       <c r="J82" t="n">
         <v>72</v>
       </c>
       <c r="K82" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L82" t="n">
-        <v>0.705806336363636</v>
+        <v>0.706356140909091</v>
       </c>
       <c r="M82" t="n">
-        <v>0.700314</v>
+        <v>0.67315195</v>
       </c>
       <c r="N82" t="n">
         <v>71</v>
@@ -8103,46 +8103,46 @@
         <v>71</v>
       </c>
       <c r="P82" t="n">
-        <v>0.761168163636364</v>
+        <v>0.761500090909091</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.7611682</v>
+        <v>0.76118955</v>
       </c>
       <c r="R82" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S82" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T82" t="n">
-        <v>0.747830581818182</v>
+        <v>0.747915718181818</v>
       </c>
       <c r="U82" t="n">
-        <v>0.7799663</v>
+        <v>0.7837897</v>
       </c>
       <c r="V82" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="W82" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="X82" t="n">
-        <v>0.70965838</v>
+        <v>0.709645075454545</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.7864459</v>
+        <v>0.8033389</v>
       </c>
       <c r="Z82" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA82" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AB82" t="n">
-        <v>64.6</v>
+        <v>61.4</v>
       </c>
       <c r="AC82" t="n">
-        <v>69.8</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="83">
@@ -8168,22 +8168,22 @@
         <v>84</v>
       </c>
       <c r="H83" t="n">
-        <v>0.586292754545455</v>
+        <v>0.585248122727273</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5719985</v>
+        <v>0.56651925</v>
       </c>
       <c r="J83" t="n">
         <v>74</v>
       </c>
       <c r="K83" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L83" t="n">
-        <v>0.688925454545455</v>
+        <v>0.690239618181818</v>
       </c>
       <c r="M83" t="n">
-        <v>0.6657583</v>
+        <v>0.65690935</v>
       </c>
       <c r="N83" t="n">
         <v>73</v>
@@ -8192,46 +8192,46 @@
         <v>73</v>
       </c>
       <c r="P83" t="n">
-        <v>0.746087604545455</v>
+        <v>0.747080513636364</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.7460876</v>
+        <v>0.73170925</v>
       </c>
       <c r="R83" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S83" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T83" t="n">
-        <v>0.747475777272727</v>
+        <v>0.747562745454545</v>
       </c>
       <c r="U83" t="n">
-        <v>0.7780572</v>
+        <v>0.7828277</v>
       </c>
       <c r="V83" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="W83" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="X83" t="n">
-        <v>0.709455692727273</v>
+        <v>0.709723859545455</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.7850665</v>
+        <v>0.80349785</v>
       </c>
       <c r="Z83" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA83" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="AB83" t="n">
-        <v>66.4</v>
+        <v>63</v>
       </c>
       <c r="AC83" t="n">
-        <v>72</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="84">
@@ -8257,22 +8257,22 @@
         <v>89</v>
       </c>
       <c r="H84" t="n">
-        <v>0.577025063636364</v>
+        <v>0.573831418181818</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5655394</v>
+        <v>0.55882175</v>
       </c>
       <c r="J84" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K84" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L84" t="n">
-        <v>0.677738045454545</v>
+        <v>0.678650063636364</v>
       </c>
       <c r="M84" t="n">
-        <v>0.647041</v>
+        <v>0.64423915</v>
       </c>
       <c r="N84" t="n">
         <v>75</v>
@@ -8281,46 +8281,46 @@
         <v>76</v>
       </c>
       <c r="P84" t="n">
-        <v>0.735976390909091</v>
+        <v>0.736839345454545</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.7330444</v>
+        <v>0.7192678</v>
       </c>
       <c r="R84" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S84" t="n">
         <v>75</v>
       </c>
       <c r="T84" t="n">
-        <v>0.747608204545455</v>
+        <v>0.747556954545455</v>
       </c>
       <c r="U84" t="n">
-        <v>0.7808444</v>
+        <v>0.78227525</v>
       </c>
       <c r="V84" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="W84" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X84" t="n">
-        <v>0.710221782727273</v>
+        <v>0.710184484090909</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.7846062</v>
+        <v>0.80326795</v>
       </c>
       <c r="Z84" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA84" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AB84" t="n">
-        <v>66.2</v>
+        <v>64.2</v>
       </c>
       <c r="AC84" t="n">
-        <v>72.6</v>
+        <v>68.4</v>
       </c>
     </row>
     <row r="85">
@@ -8346,22 +8346,22 @@
         <v>94</v>
       </c>
       <c r="H85" t="n">
-        <v>0.569785754545455</v>
+        <v>0.566515545454545</v>
       </c>
       <c r="I85" t="n">
-        <v>0.5570442</v>
+        <v>0.5537693</v>
       </c>
       <c r="J85" t="n">
         <v>77</v>
       </c>
       <c r="K85" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L85" t="n">
-        <v>0.668605690909091</v>
+        <v>0.669877363636364</v>
       </c>
       <c r="M85" t="n">
-        <v>0.6421198</v>
+        <v>0.6336867</v>
       </c>
       <c r="N85" t="n">
         <v>77</v>
@@ -8370,46 +8370,46 @@
         <v>77</v>
       </c>
       <c r="P85" t="n">
-        <v>0.725450731818182</v>
+        <v>0.728597518181818</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.7179178</v>
+        <v>0.70605465</v>
       </c>
       <c r="R85" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S85" t="n">
         <v>77</v>
       </c>
       <c r="T85" t="n">
-        <v>0.747866763636364</v>
+        <v>0.747804859090909</v>
       </c>
       <c r="U85" t="n">
-        <v>0.7790865</v>
+        <v>0.7816992</v>
       </c>
       <c r="V85" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="W85" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X85" t="n">
-        <v>0.711222367272727</v>
+        <v>0.711414345454545</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.7832237</v>
+        <v>0.80326795</v>
       </c>
       <c r="Z85" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA85" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="AB85" t="n">
-        <v>66.2</v>
+        <v>63.2</v>
       </c>
       <c r="AC85" t="n">
-        <v>75.2</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="86">
@@ -8435,22 +8435,22 @@
         <v>99</v>
       </c>
       <c r="H86" t="n">
-        <v>0.565958109090909</v>
+        <v>0.558610063636364</v>
       </c>
       <c r="I86" t="n">
-        <v>0.5544399</v>
+        <v>0.5489013</v>
       </c>
       <c r="J86" t="n">
         <v>79</v>
       </c>
       <c r="K86" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L86" t="n">
-        <v>0.665271936363636</v>
+        <v>0.660659268181818</v>
       </c>
       <c r="M86" t="n">
-        <v>0.6329285</v>
+        <v>0.6217165</v>
       </c>
       <c r="N86" t="n">
         <v>79</v>
@@ -8459,46 +8459,46 @@
         <v>79</v>
       </c>
       <c r="P86" t="n">
-        <v>0.722932863636364</v>
+        <v>0.720404231818182</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.7044433</v>
+        <v>0.6960205</v>
       </c>
       <c r="R86" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S86" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T86" t="n">
-        <v>0.760589377272727</v>
+        <v>0.747730022727273</v>
       </c>
       <c r="U86" t="n">
-        <v>0.7952275</v>
+        <v>0.7814968</v>
       </c>
       <c r="V86" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="W86" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="X86" t="n">
-        <v>0.740166700454545</v>
+        <v>0.711446700454545</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.8180582</v>
+        <v>0.8030379</v>
       </c>
       <c r="Z86" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AA86" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="AB86" t="n">
-        <v>55.2</v>
+        <v>64.8</v>
       </c>
       <c r="AC86" t="n">
-        <v>61.2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87">
@@ -8524,70 +8524,70 @@
         <v>104</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5595982</v>
+        <v>0.554696609090909</v>
       </c>
       <c r="I87" t="n">
-        <v>0.550108</v>
+        <v>0.54767805</v>
       </c>
       <c r="J87" t="n">
         <v>81</v>
       </c>
       <c r="K87" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L87" t="n">
-        <v>0.656613213636364</v>
+        <v>0.657334609090909</v>
       </c>
       <c r="M87" t="n">
-        <v>0.620356</v>
+        <v>0.6193202</v>
       </c>
       <c r="N87" t="n">
         <v>81</v>
       </c>
       <c r="O87" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P87" t="n">
-        <v>0.713259236363636</v>
+        <v>0.717826572727273</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.6890687</v>
+        <v>0.69707175</v>
       </c>
       <c r="R87" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S87" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T87" t="n">
-        <v>0.759808054545455</v>
+        <v>0.747363477272727</v>
       </c>
       <c r="U87" t="n">
-        <v>0.7951921</v>
+        <v>0.7810344</v>
       </c>
       <c r="V87" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="W87" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="X87" t="n">
-        <v>0.740003069090909</v>
+        <v>0.711669616818182</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.8173601</v>
+        <v>0.80326795</v>
       </c>
       <c r="Z87" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AA87" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AB87" t="n">
-        <v>57.4</v>
+        <v>66</v>
       </c>
       <c r="AC87" t="n">
-        <v>63.8</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="88">
@@ -8613,10 +8613,10 @@
         <v>109</v>
       </c>
       <c r="H88" t="n">
-        <v>0.553467922727273</v>
+        <v>0.548004577272727</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5465689</v>
+        <v>0.53799005</v>
       </c>
       <c r="J88" t="n">
         <v>83</v>
@@ -8625,22 +8625,22 @@
         <v>83</v>
       </c>
       <c r="L88" t="n">
-        <v>0.647780190909091</v>
+        <v>0.649225045454545</v>
       </c>
       <c r="M88" t="n">
-        <v>0.6200531</v>
+        <v>0.6090758</v>
       </c>
       <c r="N88" t="n">
         <v>83</v>
       </c>
       <c r="O88" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P88" t="n">
-        <v>0.704321704545455</v>
+        <v>0.709522009090909</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.6863945</v>
+        <v>0.6942097</v>
       </c>
       <c r="R88" t="n">
         <v>83</v>
@@ -8649,34 +8649,34 @@
         <v>82</v>
       </c>
       <c r="T88" t="n">
-        <v>0.759737527272727</v>
+        <v>0.747335945454545</v>
       </c>
       <c r="U88" t="n">
-        <v>0.7951921</v>
+        <v>0.78048015</v>
       </c>
       <c r="V88" t="n">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="W88" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="X88" t="n">
-        <v>0.740049109090909</v>
+        <v>0.712081916363636</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.8175435</v>
+        <v>0.80378595</v>
       </c>
       <c r="Z88" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AA88" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AB88" t="n">
-        <v>58.8</v>
+        <v>67</v>
       </c>
       <c r="AC88" t="n">
-        <v>64.2</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="89">
@@ -8702,10 +8702,10 @@
         <v>114</v>
       </c>
       <c r="H89" t="n">
-        <v>0.548053590909091</v>
+        <v>0.543663504545455</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5399761</v>
+        <v>0.5342027</v>
       </c>
       <c r="J89" t="n">
         <v>85</v>
@@ -8714,58 +8714,58 @@
         <v>85</v>
       </c>
       <c r="L89" t="n">
-        <v>0.641457840909091</v>
+        <v>0.641604677272727</v>
       </c>
       <c r="M89" t="n">
-        <v>0.6125697</v>
+        <v>0.60642975</v>
       </c>
       <c r="N89" t="n">
         <v>85</v>
       </c>
       <c r="O89" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P89" t="n">
-        <v>0.698941977272727</v>
+        <v>0.700694472727273</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.6846236</v>
+        <v>0.6727571</v>
       </c>
       <c r="R89" t="n">
         <v>85</v>
       </c>
       <c r="S89" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T89" t="n">
-        <v>0.759205622727273</v>
+        <v>0.747114213636364</v>
       </c>
       <c r="U89" t="n">
-        <v>0.7946667</v>
+        <v>0.7786103</v>
       </c>
       <c r="V89" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="W89" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="X89" t="n">
-        <v>0.739356448636364</v>
+        <v>0.712304819545455</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.8170111</v>
+        <v>0.8032547</v>
       </c>
       <c r="Z89" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA89" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AB89" t="n">
-        <v>61.4</v>
+        <v>68.6</v>
       </c>
       <c r="AC89" t="n">
-        <v>66.6</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="90">
@@ -8791,70 +8791,70 @@
         <v>119</v>
       </c>
       <c r="H90" t="n">
-        <v>0.543144109090909</v>
+        <v>0.542312936363636</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5364664</v>
+        <v>0.53261625</v>
       </c>
       <c r="J90" t="n">
         <v>87</v>
       </c>
       <c r="K90" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L90" t="n">
-        <v>0.633402859090909</v>
+        <v>0.637531863636364</v>
       </c>
       <c r="M90" t="n">
-        <v>0.608417</v>
+        <v>0.6070769</v>
       </c>
       <c r="N90" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O90" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P90" t="n">
-        <v>0.691306959090909</v>
+        <v>0.696578586363636</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.6695565</v>
+        <v>0.6733714</v>
       </c>
       <c r="R90" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S90" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T90" t="n">
-        <v>0.758624909090909</v>
+        <v>0.759307295454545</v>
       </c>
       <c r="U90" t="n">
-        <v>0.7924227</v>
+        <v>0.79587745</v>
       </c>
       <c r="V90" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W90" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="X90" t="n">
-        <v>0.739343582727273</v>
+        <v>0.740474174545454</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.8178096</v>
+        <v>0.8235861</v>
       </c>
       <c r="Z90" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AA90" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB90" t="n">
-        <v>63.4</v>
+        <v>61.2</v>
       </c>
       <c r="AC90" t="n">
-        <v>67.2</v>
+        <v>64.6</v>
       </c>
     </row>
     <row r="91">
@@ -8880,10 +8880,10 @@
         <v>124</v>
       </c>
       <c r="H91" t="n">
-        <v>0.538635468181818</v>
+        <v>0.539365381818182</v>
       </c>
       <c r="I91" t="n">
-        <v>0.533895</v>
+        <v>0.52950435</v>
       </c>
       <c r="J91" t="n">
         <v>89</v>
@@ -8892,58 +8892,58 @@
         <v>89</v>
       </c>
       <c r="L91" t="n">
-        <v>0.625997440909091</v>
+        <v>0.630785163636364</v>
       </c>
       <c r="M91" t="n">
-        <v>0.6026572</v>
+        <v>0.6056396</v>
       </c>
       <c r="N91" t="n">
         <v>89</v>
       </c>
       <c r="O91" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P91" t="n">
-        <v>0.683317481818182</v>
+        <v>0.689498272727273</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.6626399</v>
+        <v>0.66666285</v>
       </c>
       <c r="R91" t="n">
         <v>89</v>
       </c>
       <c r="S91" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T91" t="n">
-        <v>0.758628463636364</v>
+        <v>0.759165713636364</v>
       </c>
       <c r="U91" t="n">
-        <v>0.7916914</v>
+        <v>0.79463825</v>
       </c>
       <c r="V91" t="n">
         <v>47</v>
       </c>
       <c r="W91" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="X91" t="n">
-        <v>0.739606874090909</v>
+        <v>0.740457429545455</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.8179753</v>
+        <v>0.8234113</v>
       </c>
       <c r="Z91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA91" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB91" t="n">
-        <v>63.6</v>
+        <v>63.2</v>
       </c>
       <c r="AC91" t="n">
-        <v>68</v>
+        <v>67.4</v>
       </c>
     </row>
   </sheetData>
